--- a/Bài Test MiGrate với máy ảo.xlsx
+++ b/Bài Test MiGrate với máy ảo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TÀI LIỆU NÂNG CẤP WINSERVER_2012_TO_2022\UpdateWinServer2012to2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB166950-CF69-4504-B2F4-321413747288}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77A4059-9FD3-41E4-9645-6E63AA084452}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>Bước 1:</t>
   </si>
@@ -141,9 +141,6 @@
     <t>Link Video:</t>
   </si>
   <si>
-    <t>Nâng cấp Server Schema của PDC từ Winserver 2012(56) lên Winserver 2022(88)</t>
-  </si>
-  <si>
     <t>** Xem Version của Schema 2012 hiện tại.</t>
   </si>
   <si>
@@ -166,6 +163,12 @@
   </si>
   <si>
     <t>Bước 3:</t>
+  </si>
+  <si>
+    <t>Nâng cấp Server Schema của PDC từ Winserver 2012(69) lên Winserver 2022(88)</t>
+  </si>
+  <si>
+    <t>Bước 4: Hạ cấp PDC.</t>
   </si>
 </sst>
 </file>
@@ -439,6 +442,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -496,21 +507,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2011,7 +2014,7 @@
   <dimension ref="A1:Z112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U27" sqref="U27"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2021,23 +2024,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
     </row>
     <row r="2" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D2" s="3" t="s">
@@ -2045,10 +2048,10 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -2101,17 +2104,17 @@
       <c r="Y6" s="4"/>
     </row>
     <row r="7" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="23"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="27"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -2268,11 +2271,11 @@
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
-      <c r="S12" s="8" t="s">
+      <c r="S12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="T12" s="9"/>
-      <c r="U12" s="10"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="14"/>
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
@@ -2303,10 +2306,10 @@
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
-      <c r="Y13" s="19" t="s">
+      <c r="Y13" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="Z13" s="20"/>
+      <c r="Z13" s="24"/>
     </row>
     <row r="14" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
@@ -2330,11 +2333,11 @@
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
-      <c r="S14" s="11" t="s">
+      <c r="S14" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="T14" s="12"/>
-      <c r="U14" s="13"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="17"/>
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
@@ -2360,9 +2363,9 @@
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="16"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="20"/>
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
@@ -2443,19 +2446,19 @@
       <c r="Y18" s="4"/>
     </row>
     <row r="19" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="26"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="30"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
@@ -2470,21 +2473,21 @@
       <c r="Y19" s="4"/>
     </row>
     <row r="20" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="29"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="33"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
@@ -2506,17 +2509,17 @@
         <v>0</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
@@ -2535,18 +2538,18 @@
     </row>
     <row r="22" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
@@ -2566,22 +2569,22 @@
     <row r="23" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
-      <c r="N23" s="8" t="s">
+      <c r="N23" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="O23" s="9"/>
-      <c r="P23" s="10"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="14"/>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
@@ -2596,15 +2599,15 @@
     <row r="24" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
@@ -2624,22 +2627,22 @@
     <row r="25" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
-      <c r="N25" s="11" t="s">
+      <c r="N25" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="O25" s="12"/>
-      <c r="P25" s="13"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="17"/>
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
@@ -2654,20 +2657,20 @@
     <row r="26" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="16"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="20"/>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
@@ -2682,15 +2685,15 @@
     <row r="27" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
@@ -2710,15 +2713,15 @@
     <row r="28" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
@@ -2738,15 +2741,15 @@
     <row r="29" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
@@ -2766,15 +2769,15 @@
     <row r="30" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
@@ -2794,15 +2797,15 @@
     <row r="31" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
@@ -2822,15 +2825,15 @@
     <row r="32" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
@@ -2850,15 +2853,15 @@
     <row r="33" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
@@ -2878,15 +2881,15 @@
     <row r="34" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
@@ -2906,17 +2909,17 @@
     <row r="35" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
@@ -2936,15 +2939,15 @@
     <row r="36" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
@@ -2964,15 +2967,15 @@
     <row r="37" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
@@ -2992,15 +2995,15 @@
     <row r="38" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
@@ -3020,15 +3023,15 @@
     <row r="39" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
@@ -3048,15 +3051,15 @@
     <row r="40" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="33"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
@@ -3076,15 +3079,15 @@
     <row r="41" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="33"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
@@ -3104,15 +3107,15 @@
     <row r="42" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="33"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
@@ -3132,15 +3135,15 @@
     <row r="43" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="33"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="33"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
@@ -3160,15 +3163,15 @@
     <row r="44" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="33"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
@@ -3188,15 +3191,15 @@
     <row r="45" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="33"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
@@ -3216,15 +3219,15 @@
     <row r="46" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="33"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
@@ -3244,15 +3247,15 @@
     <row r="47" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="33"/>
-      <c r="J47" s="33"/>
-      <c r="K47" s="33"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
@@ -3272,15 +3275,15 @@
     <row r="48" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="33"/>
-      <c r="J48" s="33"/>
-      <c r="K48" s="33"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
@@ -3300,15 +3303,15 @@
     <row r="49" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="33"/>
-      <c r="I49" s="33"/>
-      <c r="J49" s="33"/>
-      <c r="K49" s="33"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
@@ -3328,15 +3331,15 @@
     <row r="50" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="33"/>
-      <c r="I50" s="33"/>
-      <c r="J50" s="33"/>
-      <c r="K50" s="33"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
@@ -3356,15 +3359,15 @@
     <row r="51" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="33"/>
-      <c r="J51" s="33"/>
-      <c r="K51" s="33"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
@@ -3384,15 +3387,15 @@
     <row r="52" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="33"/>
-      <c r="J52" s="33"/>
-      <c r="K52" s="33"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
@@ -3412,15 +3415,15 @@
     <row r="53" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="33"/>
-      <c r="J53" s="33"/>
-      <c r="K53" s="33"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
@@ -3440,15 +3443,15 @@
     <row r="54" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="33"/>
-      <c r="I54" s="33"/>
-      <c r="J54" s="33"/>
-      <c r="K54" s="33"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
@@ -3468,15 +3471,15 @@
     <row r="55" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="33"/>
-      <c r="J55" s="33"/>
-      <c r="K55" s="33"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
@@ -3496,15 +3499,15 @@
     <row r="56" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="33"/>
-      <c r="I56" s="33"/>
-      <c r="J56" s="33"/>
-      <c r="K56" s="33"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
       <c r="L56" s="4"/>
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
@@ -3524,15 +3527,15 @@
     <row r="57" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="33"/>
-      <c r="J57" s="33"/>
-      <c r="K57" s="33"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
@@ -3552,15 +3555,15 @@
     <row r="58" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="33"/>
-      <c r="J58" s="33"/>
-      <c r="K58" s="33"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
@@ -3580,15 +3583,15 @@
     <row r="59" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="33"/>
-      <c r="H59" s="33"/>
-      <c r="I59" s="33"/>
-      <c r="J59" s="33"/>
-      <c r="K59" s="33"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
@@ -3608,15 +3611,15 @@
     <row r="60" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="33"/>
-      <c r="H60" s="33"/>
-      <c r="I60" s="33"/>
-      <c r="J60" s="33"/>
-      <c r="K60" s="33"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
@@ -3636,15 +3639,15 @@
     <row r="61" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="33"/>
-      <c r="J61" s="33"/>
-      <c r="K61" s="33"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
@@ -3664,15 +3667,15 @@
     <row r="62" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="33"/>
-      <c r="H62" s="33"/>
-      <c r="I62" s="33"/>
-      <c r="J62" s="33"/>
-      <c r="K62" s="33"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
       <c r="L62" s="4"/>
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
@@ -3692,17 +3695,17 @@
     <row r="63" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
-      <c r="C63" s="33"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="33"/>
-      <c r="I63" s="33"/>
-      <c r="J63" s="33"/>
-      <c r="K63" s="33"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
@@ -3721,18 +3724,18 @@
     </row>
     <row r="64" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B64" s="4"/>
-      <c r="C64" s="33"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="33"/>
-      <c r="F64" s="33"/>
-      <c r="G64" s="33"/>
-      <c r="H64" s="33"/>
-      <c r="I64" s="33"/>
-      <c r="J64" s="33"/>
-      <c r="K64" s="33"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
@@ -3752,17 +3755,17 @@
     <row r="65" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="B65" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
-      <c r="C65" s="33"/>
-      <c r="D65" s="33"/>
-      <c r="E65" s="33"/>
-      <c r="F65" s="33"/>
-      <c r="G65" s="33"/>
-      <c r="H65" s="33"/>
-      <c r="I65" s="33"/>
-      <c r="J65" s="33"/>
-      <c r="K65" s="33"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
@@ -3782,15 +3785,15 @@
     <row r="66" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
-      <c r="C66" s="33"/>
-      <c r="D66" s="33"/>
-      <c r="E66" s="33"/>
-      <c r="F66" s="33"/>
-      <c r="G66" s="33"/>
-      <c r="H66" s="33"/>
-      <c r="I66" s="33"/>
-      <c r="J66" s="33"/>
-      <c r="K66" s="33"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
@@ -3810,15 +3813,15 @@
     <row r="67" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="33"/>
-      <c r="F67" s="33"/>
-      <c r="G67" s="33"/>
-      <c r="H67" s="33"/>
-      <c r="I67" s="33"/>
-      <c r="J67" s="33"/>
-      <c r="K67" s="33"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
       <c r="L67" s="4"/>
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
@@ -3838,15 +3841,15 @@
     <row r="68" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
-      <c r="C68" s="33"/>
-      <c r="D68" s="33"/>
-      <c r="E68" s="33"/>
-      <c r="F68" s="33"/>
-      <c r="G68" s="33"/>
-      <c r="H68" s="33"/>
-      <c r="I68" s="33"/>
-      <c r="J68" s="33"/>
-      <c r="K68" s="33"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
@@ -3866,15 +3869,15 @@
     <row r="69" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
-      <c r="C69" s="33"/>
-      <c r="D69" s="33"/>
-      <c r="E69" s="33"/>
-      <c r="F69" s="33"/>
-      <c r="G69" s="33"/>
-      <c r="H69" s="33"/>
-      <c r="I69" s="33"/>
-      <c r="J69" s="33"/>
-      <c r="K69" s="33"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
@@ -3894,15 +3897,15 @@
     <row r="70" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
-      <c r="C70" s="33"/>
-      <c r="D70" s="33"/>
-      <c r="E70" s="33"/>
-      <c r="F70" s="33"/>
-      <c r="G70" s="33"/>
-      <c r="H70" s="33"/>
-      <c r="I70" s="33"/>
-      <c r="J70" s="33"/>
-      <c r="K70" s="33"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
       <c r="N70" s="4"/>
@@ -3922,15 +3925,15 @@
     <row r="71" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
-      <c r="C71" s="33"/>
-      <c r="D71" s="33"/>
-      <c r="E71" s="33"/>
-      <c r="F71" s="33"/>
-      <c r="G71" s="33"/>
-      <c r="H71" s="33"/>
-      <c r="I71" s="33"/>
-      <c r="J71" s="33"/>
-      <c r="K71" s="33"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
       <c r="L71" s="4"/>
       <c r="M71" s="4"/>
       <c r="N71" s="4"/>
@@ -3950,15 +3953,15 @@
     <row r="72" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
-      <c r="C72" s="33"/>
-      <c r="D72" s="33"/>
-      <c r="E72" s="33"/>
-      <c r="F72" s="33"/>
-      <c r="G72" s="33"/>
-      <c r="H72" s="33"/>
-      <c r="I72" s="33"/>
-      <c r="J72" s="33"/>
-      <c r="K72" s="33"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
       <c r="L72" s="4"/>
       <c r="M72" s="4"/>
       <c r="N72" s="4"/>
@@ -3978,15 +3981,15 @@
     <row r="73" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
-      <c r="C73" s="33"/>
-      <c r="D73" s="33"/>
-      <c r="E73" s="33"/>
-      <c r="F73" s="33"/>
-      <c r="G73" s="33"/>
-      <c r="H73" s="33"/>
-      <c r="I73" s="33"/>
-      <c r="J73" s="33"/>
-      <c r="K73" s="33"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
       <c r="L73" s="4"/>
       <c r="M73" s="4"/>
       <c r="N73" s="4"/>
@@ -3995,7 +3998,7 @@
       <c r="Q73" s="6"/>
       <c r="R73" s="6"/>
       <c r="S73" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T73" s="6"/>
       <c r="U73" s="6"/>
@@ -4008,15 +4011,15 @@
     <row r="74" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="33"/>
-      <c r="F74" s="33"/>
-      <c r="G74" s="33"/>
-      <c r="H74" s="33"/>
-      <c r="I74" s="33"/>
-      <c r="J74" s="33"/>
-      <c r="K74" s="33"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
       <c r="L74" s="4"/>
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
@@ -4036,15 +4039,15 @@
     <row r="75" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
-      <c r="C75" s="33"/>
-      <c r="D75" s="33"/>
-      <c r="E75" s="33"/>
-      <c r="F75" s="33"/>
-      <c r="G75" s="33"/>
-      <c r="H75" s="33"/>
-      <c r="I75" s="33"/>
-      <c r="J75" s="33"/>
-      <c r="K75" s="33"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
       <c r="L75" s="4"/>
       <c r="M75" s="4"/>
       <c r="N75" s="4"/>
@@ -4064,15 +4067,15 @@
     <row r="76" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
-      <c r="C76" s="33"/>
-      <c r="D76" s="33"/>
-      <c r="E76" s="33"/>
-      <c r="F76" s="33"/>
-      <c r="G76" s="33"/>
-      <c r="H76" s="33"/>
-      <c r="I76" s="33"/>
-      <c r="J76" s="33"/>
-      <c r="K76" s="33"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
       <c r="L76" s="4"/>
       <c r="M76" s="4"/>
       <c r="N76" s="4"/>
@@ -4092,15 +4095,15 @@
     <row r="77" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
-      <c r="C77" s="33"/>
-      <c r="D77" s="33"/>
-      <c r="E77" s="33"/>
-      <c r="F77" s="33"/>
-      <c r="G77" s="33"/>
-      <c r="H77" s="33"/>
-      <c r="I77" s="33"/>
-      <c r="J77" s="33"/>
-      <c r="K77" s="33"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11"/>
       <c r="L77" s="4"/>
       <c r="M77" s="4"/>
       <c r="N77" s="4"/>
@@ -4120,15 +4123,15 @@
     <row r="78" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
-      <c r="C78" s="33"/>
-      <c r="D78" s="33"/>
-      <c r="E78" s="33"/>
-      <c r="F78" s="33"/>
-      <c r="G78" s="33"/>
-      <c r="H78" s="33"/>
-      <c r="I78" s="33"/>
-      <c r="J78" s="33"/>
-      <c r="K78" s="33"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
       <c r="L78" s="4"/>
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
@@ -4148,15 +4151,15 @@
     <row r="79" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
-      <c r="C79" s="33"/>
-      <c r="D79" s="33"/>
-      <c r="E79" s="33"/>
-      <c r="F79" s="33"/>
-      <c r="G79" s="33"/>
-      <c r="H79" s="33"/>
-      <c r="I79" s="33"/>
-      <c r="J79" s="33"/>
-      <c r="K79" s="33"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="11"/>
       <c r="L79" s="4"/>
       <c r="M79" s="4"/>
       <c r="N79" s="4"/>
@@ -4176,15 +4179,15 @@
     <row r="80" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
-      <c r="C80" s="33"/>
-      <c r="D80" s="33"/>
-      <c r="E80" s="33"/>
-      <c r="F80" s="33"/>
-      <c r="G80" s="33"/>
-      <c r="H80" s="33"/>
-      <c r="I80" s="33"/>
-      <c r="J80" s="33"/>
-      <c r="K80" s="33"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="11"/>
       <c r="L80" s="4"/>
       <c r="M80" s="4"/>
       <c r="N80" s="4"/>
@@ -4204,15 +4207,15 @@
     <row r="81" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
-      <c r="C81" s="33"/>
-      <c r="D81" s="33"/>
-      <c r="E81" s="33"/>
-      <c r="F81" s="33"/>
-      <c r="G81" s="33"/>
-      <c r="H81" s="33"/>
-      <c r="I81" s="33"/>
-      <c r="J81" s="33"/>
-      <c r="K81" s="33"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="11"/>
       <c r="L81" s="4"/>
       <c r="M81" s="4"/>
       <c r="N81" s="4"/>
@@ -4232,15 +4235,15 @@
     <row r="82" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
-      <c r="C82" s="33"/>
-      <c r="D82" s="33"/>
-      <c r="E82" s="33"/>
-      <c r="F82" s="33"/>
-      <c r="G82" s="33"/>
-      <c r="H82" s="33"/>
-      <c r="I82" s="33"/>
-      <c r="J82" s="33"/>
-      <c r="K82" s="33"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="11"/>
       <c r="L82" s="4"/>
       <c r="M82" s="4"/>
       <c r="N82" s="4"/>
@@ -4260,15 +4263,15 @@
     <row r="83" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
-      <c r="C83" s="33"/>
-      <c r="D83" s="33"/>
-      <c r="E83" s="33"/>
-      <c r="F83" s="33"/>
-      <c r="G83" s="33"/>
-      <c r="H83" s="33"/>
-      <c r="I83" s="33"/>
-      <c r="J83" s="33"/>
-      <c r="K83" s="33"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="11"/>
       <c r="L83" s="4"/>
       <c r="M83" s="4"/>
       <c r="N83" s="4"/>
@@ -4288,15 +4291,15 @@
     <row r="84" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
-      <c r="C84" s="33"/>
-      <c r="D84" s="33"/>
-      <c r="E84" s="33"/>
-      <c r="F84" s="33"/>
-      <c r="G84" s="33"/>
-      <c r="H84" s="33"/>
-      <c r="I84" s="33"/>
-      <c r="J84" s="33"/>
-      <c r="K84" s="33"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="11"/>
       <c r="L84" s="4"/>
       <c r="M84" s="4"/>
       <c r="N84" s="4"/>
@@ -4316,15 +4319,15 @@
     <row r="85" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
-      <c r="C85" s="33"/>
-      <c r="D85" s="33"/>
-      <c r="E85" s="33"/>
-      <c r="F85" s="33"/>
-      <c r="G85" s="33"/>
-      <c r="H85" s="33"/>
-      <c r="I85" s="33"/>
-      <c r="J85" s="33"/>
-      <c r="K85" s="33"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="11"/>
       <c r="L85" s="4"/>
       <c r="M85" s="4"/>
       <c r="N85" s="4"/>
@@ -4344,15 +4347,15 @@
     <row r="86" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
-      <c r="C86" s="33"/>
-      <c r="D86" s="33"/>
-      <c r="E86" s="33"/>
-      <c r="F86" s="33"/>
-      <c r="G86" s="33"/>
-      <c r="H86" s="33"/>
-      <c r="I86" s="33"/>
-      <c r="J86" s="33"/>
-      <c r="K86" s="33"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="11"/>
       <c r="L86" s="4"/>
       <c r="M86" s="4"/>
       <c r="N86" s="4"/>
@@ -4372,15 +4375,15 @@
     <row r="87" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
-      <c r="C87" s="33"/>
-      <c r="D87" s="33"/>
-      <c r="E87" s="33"/>
-      <c r="F87" s="33"/>
-      <c r="G87" s="33"/>
-      <c r="H87" s="33"/>
-      <c r="I87" s="33"/>
-      <c r="J87" s="33"/>
-      <c r="K87" s="33"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="11"/>
+      <c r="K87" s="11"/>
       <c r="L87" s="4"/>
       <c r="M87" s="4"/>
       <c r="N87" s="4"/>
@@ -4400,15 +4403,15 @@
     <row r="88" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
-      <c r="C88" s="33"/>
-      <c r="D88" s="33"/>
-      <c r="E88" s="33"/>
-      <c r="F88" s="33"/>
-      <c r="G88" s="33"/>
-      <c r="H88" s="33"/>
-      <c r="I88" s="33"/>
-      <c r="J88" s="33"/>
-      <c r="K88" s="33"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="11"/>
       <c r="L88" s="4"/>
       <c r="M88" s="4"/>
       <c r="N88" s="4"/>
@@ -4428,15 +4431,15 @@
     <row r="89" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
-      <c r="C89" s="33"/>
-      <c r="D89" s="33"/>
-      <c r="E89" s="33"/>
-      <c r="F89" s="33"/>
-      <c r="G89" s="33"/>
-      <c r="H89" s="33"/>
-      <c r="I89" s="33"/>
-      <c r="J89" s="33"/>
-      <c r="K89" s="33"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="11"/>
       <c r="L89" s="4"/>
       <c r="M89" s="4"/>
       <c r="N89" s="4"/>
@@ -4456,15 +4459,15 @@
     <row r="90" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
-      <c r="C90" s="33"/>
-      <c r="D90" s="33"/>
-      <c r="E90" s="33"/>
-      <c r="F90" s="33"/>
-      <c r="G90" s="33"/>
-      <c r="H90" s="33"/>
-      <c r="I90" s="33"/>
-      <c r="J90" s="33"/>
-      <c r="K90" s="33"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="11"/>
       <c r="L90" s="4"/>
       <c r="M90" s="4"/>
       <c r="N90" s="4"/>
@@ -4484,15 +4487,15 @@
     <row r="91" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
-      <c r="C91" s="33"/>
-      <c r="D91" s="33"/>
-      <c r="E91" s="33"/>
-      <c r="F91" s="33"/>
-      <c r="G91" s="33"/>
-      <c r="H91" s="33"/>
-      <c r="I91" s="33"/>
-      <c r="J91" s="33"/>
-      <c r="K91" s="33"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="11"/>
       <c r="L91" s="4"/>
       <c r="M91" s="4"/>
       <c r="N91" s="4"/>
@@ -4501,7 +4504,7 @@
       <c r="Q91" s="6"/>
       <c r="R91" s="6"/>
       <c r="S91" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T91" s="6"/>
       <c r="U91" s="6"/>
@@ -4512,17 +4515,17 @@
       <c r="Z91" s="6"/>
     </row>
     <row r="92" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A92" s="31"/>
-      <c r="B92" s="32"/>
-      <c r="C92" s="33"/>
-      <c r="D92" s="33"/>
-      <c r="E92" s="33"/>
-      <c r="F92" s="33"/>
-      <c r="G92" s="33"/>
-      <c r="H92" s="33"/>
-      <c r="I92" s="33"/>
-      <c r="J92" s="33"/>
-      <c r="K92" s="33"/>
+      <c r="A92" s="9"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="11"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="11"/>
       <c r="L92" s="4"/>
       <c r="M92" s="4"/>
       <c r="N92" s="4"/>
@@ -4540,17 +4543,17 @@
       <c r="Z92" s="6"/>
     </row>
     <row r="93" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A93" s="31"/>
-      <c r="B93" s="32"/>
-      <c r="C93" s="33"/>
-      <c r="D93" s="33"/>
-      <c r="E93" s="33"/>
-      <c r="F93" s="33"/>
-      <c r="G93" s="33"/>
-      <c r="H93" s="33"/>
-      <c r="I93" s="33"/>
-      <c r="J93" s="33"/>
-      <c r="K93" s="33"/>
+      <c r="A93" s="9"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="11"/>
+      <c r="J93" s="11"/>
+      <c r="K93" s="11"/>
       <c r="L93" s="4"/>
       <c r="M93" s="4"/>
       <c r="N93" s="4"/>
@@ -4654,7 +4657,7 @@
     </row>
     <row r="97" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>32</v>
@@ -4887,7 +4890,9 @@
       <c r="Z104" s="6"/>
     </row>
     <row r="105" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="4"/>
+      <c r="A105" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
@@ -5144,7 +5149,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Bài Test MiGrate với máy ảo.xlsx
+++ b/Bài Test MiGrate với máy ảo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TÀI LIỆU NÂNG CẤP WINSERVER_2012_TO_2022\UpdateWinServer2012to2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77A4059-9FD3-41E4-9645-6E63AA084452}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741BA738-F947-48B2-9A78-9F669EA7CF76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
   <si>
     <t>Bước 1:</t>
   </si>
@@ -170,6 +170,33 @@
   <si>
     <t>Bước 4: Hạ cấp PDC.</t>
   </si>
+  <si>
+    <t>(Data này  khi thực hiện Migrate thì nó sẽ bị mất).</t>
+  </si>
+  <si>
+    <t>Kiểm tra lại Version Schema sau Update.</t>
+  </si>
+  <si>
+    <t>Tắt PDC và Test lại với Client.</t>
+  </si>
+  <si>
+    <t>Hoạt động ok</t>
+  </si>
+  <si>
+    <t>Kiểm lại OU, Policy,DNS</t>
+  </si>
+  <si>
+    <t>Computer:</t>
+  </si>
+  <si>
+    <t>Policy:</t>
+  </si>
+  <si>
+    <t>DNS</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
 </sst>
 </file>
 
@@ -254,7 +281,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -428,12 +455,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -515,6 +560,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -628,14 +682,14 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>4763</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>204788</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -653,8 +707,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12515850" y="1585913"/>
-          <a:ext cx="2076450" cy="252413"/>
+          <a:off x="12611100" y="1585913"/>
+          <a:ext cx="2124075" cy="252413"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -681,13 +735,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -734,13 +788,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -786,15 +840,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>428626</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>219283</xdr:rowOff>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>208</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -817,7 +871,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7972426" y="3257549"/>
+          <a:off x="8058151" y="2105024"/>
           <a:ext cx="1600200" cy="1409909"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -830,15 +884,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>428626</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>4763</xdr:rowOff>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>204788</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>304799</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>19154</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133454</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -856,8 +910,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9572626" y="1585913"/>
-          <a:ext cx="1704973" cy="2376591"/>
+          <a:off x="9658351" y="1585913"/>
+          <a:ext cx="1714498" cy="1224066"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -886,16 +940,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>296078</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>152778</xdr:rowOff>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -918,8 +972,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1343025" y="5038725"/>
-          <a:ext cx="5753903" cy="2705478"/>
+          <a:off x="1962151" y="8982075"/>
+          <a:ext cx="5448300" cy="2581275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -932,13 +986,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>219201</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -974,16 +1028,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1006,7 +1060,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="733426" y="9029700"/>
+          <a:off x="190501" y="13039725"/>
           <a:ext cx="6591299" cy="5438775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1020,13 +1074,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>628651</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1064,13 +1118,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1125,13 +1179,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1178,13 +1232,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1253,13 +1307,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>257550</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>209773</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1296,15 +1350,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>123937</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>223838</xdr:rowOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1316,14 +1370,13 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="12" idx="3"/>
           <a:endCxn id="18" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8505825" y="16049737"/>
-          <a:ext cx="2619375" cy="1290526"/>
+          <a:off x="8286750" y="20983687"/>
+          <a:ext cx="2838450" cy="1295288"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1353,13 +1406,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>10216</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>143354</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1397,13 +1450,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>181163</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>209773</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>19396</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1447,6 +1500,727 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0972C44E-EA6B-4745-9703-86F4A9407923}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114301" y="1885950"/>
+          <a:ext cx="2952749" cy="2019300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13521695-CCD1-4CBA-922D-83687C2B16E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3771900" y="1933574"/>
+          <a:ext cx="2990850" cy="1733551"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133559</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D840D86-798E-41F6-8509-1D5687FA28F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95251" y="4457700"/>
+          <a:ext cx="3371850" cy="1495634"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38228</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A38B537C-EFCB-423A-932A-748195CED309}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5581651" y="6886575"/>
+          <a:ext cx="1857374" cy="914528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57355</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DB3FA20-F029-48DB-B031-25CFB2B3A9B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4181475" y="4410075"/>
+          <a:ext cx="3076575" cy="1467055"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>143017</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6416A38-91A2-4E51-81D7-900E3F099CE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7429500" y="13077825"/>
+          <a:ext cx="5467350" cy="1019317"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>190553</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56A24B6A-0418-45D3-B55E-BA8C5A4C0D9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3190876" y="26146125"/>
+          <a:ext cx="4819650" cy="381053"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Rectangle 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03C6C963-B3D8-4D16-9B8E-A3B58C7E0E88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6791325" y="26298525"/>
+          <a:ext cx="1104900" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>28732</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D29D0EFF-D9BF-43D3-8D3B-E37EA8D3B527}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3781425" y="27327225"/>
+          <a:ext cx="6000750" cy="1124107"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>352978</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>171594</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0819845F-9248-40B7-B65C-376A27F66072}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6848475" y="28660725"/>
+          <a:ext cx="3962953" cy="1028844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3E3CFCB-0D60-4F84-9CD8-B23F7ABEBD4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3571875" y="31232475"/>
+          <a:ext cx="3819525" cy="1209675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>152629</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F34FDC1D-FACD-43C6-9771-A87E9DCCF508}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7648576" y="31213425"/>
+          <a:ext cx="3448050" cy="1228954"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>47783</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5B556E2-FBEE-4F0A-A210-A7311E7F68E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3581400" y="32727900"/>
+          <a:ext cx="3800475" cy="1133633"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>95444</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{078AF88E-6BB0-4BF7-8904-D9B461E8B1E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8096250" y="32708850"/>
+          <a:ext cx="3619500" cy="1390844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>38250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60EF55BB-5C07-4769-9B3B-6036BA704F59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11601450" y="34299525"/>
+          <a:ext cx="3676650" cy="1076475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>66971</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE49B059-B5E8-4826-A2ED-AFD7E9F968E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3448051" y="34251900"/>
+          <a:ext cx="5791200" cy="2124371"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2011,15 +2785,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z112"/>
+  <dimension ref="A1:Z159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
     <col min="21" max="21" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2191,12 +2966,8 @@
       <c r="Y9" s="4"/>
     </row>
     <row r="10" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -2223,9 +2994,7 @@
     </row>
     <row r="11" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -2251,14 +3020,11 @@
       <c r="Y11" s="4"/>
     </row>
     <row r="12" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
-      <c r="E12" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -2271,6 +3037,7 @@
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
       <c r="S12" s="12" t="s">
         <v>20</v>
       </c>
@@ -2311,15 +3078,11 @@
       </c>
       <c r="Z13" s="24"/>
     </row>
-    <row r="14" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
-      <c r="B14" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="B14" s="4"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -2333,6 +3096,7 @@
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
       <c r="S14" s="15" t="s">
         <v>18</v>
       </c>
@@ -2347,9 +3111,7 @@
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -2363,21 +3125,20 @@
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="20"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="36"/>
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -2392,21 +3153,19 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="36"/>
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
     </row>
-    <row r="17" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -2421,617 +3180,571 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="36"/>
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="36"/>
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
       <c r="Y18" s="4"/>
     </row>
-    <row r="19" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="30"/>
+    <row r="19" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="20"/>
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
     </row>
-    <row r="20" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="8" t="s">
-        <v>36</v>
+    <row r="20" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>1</v>
       </c>
-      <c r="B20" s="31" t="s">
-        <v>8</v>
+      <c r="B20" s="4" t="s">
+        <v>21</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="33"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
+      <c r="N20" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="O20" s="13"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
-      <c r="Z20" s="6"/>
-    </row>
-    <row r="21" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
+    </row>
+    <row r="21" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
       <c r="Y21" s="4"/>
-      <c r="Z21" s="6"/>
-    </row>
-    <row r="22" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>37</v>
-      </c>
+    </row>
+    <row r="22" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
+      <c r="N22" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="O22" s="16"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
-      <c r="Z22" s="6"/>
-    </row>
-    <row r="23" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
-      <c r="N23" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="O23" s="13"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
       <c r="Y23" s="4"/>
-      <c r="Z23" s="6"/>
-    </row>
-    <row r="24" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
-      <c r="Z24" s="6"/>
-    </row>
-    <row r="25" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
-      <c r="N25" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="O25" s="16"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
-      <c r="Z25" s="6"/>
-    </row>
-    <row r="26" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
-      <c r="Z26" s="6"/>
-    </row>
-    <row r="27" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="6"/>
-      <c r="X27" s="6"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
-      <c r="Z27" s="6"/>
-    </row>
-    <row r="28" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
       <c r="Y28" s="4"/>
-      <c r="Z28" s="6"/>
-    </row>
-    <row r="29" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
-      <c r="Z29" s="6"/>
-    </row>
-    <row r="30" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
+    </row>
+    <row r="30" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="6"/>
-      <c r="W30" s="6"/>
-      <c r="X30" s="6"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
-      <c r="Z30" s="6"/>
-    </row>
-    <row r="31" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
+    </row>
+    <row r="31" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="B31" s="4"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
+      <c r="C31" s="4"/>
+      <c r="E31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="6"/>
-      <c r="W31" s="6"/>
-      <c r="X31" s="6"/>
+      <c r="Q31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
       <c r="Y31" s="4"/>
-      <c r="Z31" s="6"/>
-    </row>
-    <row r="32" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
-      <c r="U32" s="6"/>
-      <c r="V32" s="6"/>
-      <c r="W32" s="6"/>
-      <c r="X32" s="6"/>
-      <c r="Y32" s="4"/>
-      <c r="Z32" s="6"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
     </row>
     <row r="33" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
+      <c r="B33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="6"/>
-      <c r="V33" s="6"/>
-      <c r="W33" s="6"/>
-      <c r="X33" s="6"/>
+      <c r="Q33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
-      <c r="Z33" s="6"/>
-    </row>
-    <row r="34" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="6"/>
-      <c r="W34" s="6"/>
-      <c r="X34" s="6"/>
+      <c r="Q34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
-      <c r="Z34" s="6"/>
     </row>
     <row r="35" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
-      <c r="B35" s="4" t="s">
-        <v>38</v>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="2" t="s">
+        <v>28</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
-      <c r="V35" s="6"/>
-      <c r="W35" s="6"/>
-      <c r="X35" s="6"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
       <c r="Y35" s="4"/>
-      <c r="Z35" s="6"/>
-    </row>
-    <row r="36" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="6"/>
-      <c r="V36" s="6"/>
-      <c r="W36" s="6"/>
-      <c r="X36" s="6"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
       <c r="Y36" s="4"/>
-      <c r="Z36" s="6"/>
-    </row>
-    <row r="37" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
+    </row>
+    <row r="37" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
-      <c r="U37" s="6"/>
-      <c r="V37" s="6"/>
-      <c r="W37" s="6"/>
-      <c r="X37" s="6"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
       <c r="Y37" s="4"/>
-      <c r="Z37" s="6"/>
-    </row>
-    <row r="38" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
+    </row>
+    <row r="38" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="30"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="6"/>
-      <c r="V38" s="6"/>
-      <c r="W38" s="6"/>
-      <c r="X38" s="6"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
       <c r="Y38" s="4"/>
-      <c r="Z38" s="6"/>
-    </row>
-    <row r="39" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
+    </row>
+    <row r="39" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="33"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
@@ -3049,8 +3762,12 @@
       <c r="Z39" s="6"/>
     </row>
     <row r="40" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
+      <c r="A40" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
@@ -3077,7 +3794,9 @@
       <c r="Z40" s="6"/>
     </row>
     <row r="41" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="4"/>
+      <c r="A41" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="B41" s="4"/>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
@@ -3118,9 +3837,6 @@
       <c r="K42" s="11"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
       <c r="Q42" s="6"/>
       <c r="R42" s="6"/>
       <c r="S42" s="6"/>
@@ -3146,9 +3862,6 @@
       <c r="K43" s="11"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
       <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
       <c r="S43" s="6"/>
@@ -3174,9 +3887,6 @@
       <c r="K44" s="11"/>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
       <c r="Q44" s="6"/>
       <c r="R44" s="6"/>
       <c r="S44" s="6"/>
@@ -3202,9 +3912,6 @@
       <c r="K45" s="11"/>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
       <c r="Q45" s="6"/>
       <c r="R45" s="6"/>
       <c r="S45" s="6"/>
@@ -3442,7 +4149,9 @@
     </row>
     <row r="54" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
+      <c r="B54" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
@@ -3694,9 +4403,7 @@
     </row>
     <row r="63" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
-      <c r="B63" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="B63" s="4"/>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
@@ -3723,9 +4430,7 @@
       <c r="Z63" s="6"/>
     </row>
     <row r="64" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
@@ -3754,9 +4459,7 @@
     </row>
     <row r="65" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
-      <c r="B65" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="B65" s="4"/>
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
       <c r="E65" s="11"/>
@@ -3997,9 +4700,7 @@
       <c r="P73" s="4"/>
       <c r="Q73" s="6"/>
       <c r="R73" s="6"/>
-      <c r="S73" s="6" t="s">
-        <v>42</v>
-      </c>
+      <c r="S73" s="6"/>
       <c r="T73" s="6"/>
       <c r="U73" s="6"/>
       <c r="V73" s="6"/>
@@ -4262,7 +4963,9 @@
     </row>
     <row r="83" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
+      <c r="B83" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="C83" s="11"/>
       <c r="D83" s="11"/>
       <c r="E83" s="11"/>
@@ -4373,7 +5076,9 @@
       <c r="Z86" s="6"/>
     </row>
     <row r="87" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A87" s="4"/>
+      <c r="A87" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="B87" s="4"/>
       <c r="C87" s="11"/>
       <c r="D87" s="11"/>
@@ -4402,7 +5107,9 @@
     </row>
     <row r="88" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
+      <c r="B88" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="C88" s="11"/>
       <c r="D88" s="11"/>
       <c r="E88" s="11"/>
@@ -4503,9 +5210,7 @@
       <c r="P91" s="4"/>
       <c r="Q91" s="6"/>
       <c r="R91" s="6"/>
-      <c r="S91" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="S91" s="6"/>
       <c r="T91" s="6"/>
       <c r="U91" s="6"/>
       <c r="V91" s="6"/>
@@ -4515,8 +5220,8 @@
       <c r="Z91" s="6"/>
     </row>
     <row r="92" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A92" s="9"/>
-      <c r="B92" s="10"/>
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
       <c r="C92" s="11"/>
       <c r="D92" s="11"/>
       <c r="E92" s="11"/>
@@ -4543,8 +5248,8 @@
       <c r="Z92" s="6"/>
     </row>
     <row r="93" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A93" s="9"/>
-      <c r="B93" s="10"/>
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
       <c r="C93" s="11"/>
       <c r="D93" s="11"/>
       <c r="E93" s="11"/>
@@ -4570,523 +5275,1368 @@
       <c r="Y93" s="4"/>
       <c r="Z93" s="6"/>
     </row>
-    <row r="94" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A94" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
-      <c r="I94" s="4"/>
-      <c r="J94" s="4"/>
-      <c r="K94" s="4"/>
+    <row r="94" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11"/>
+      <c r="J94" s="11"/>
+      <c r="K94" s="11"/>
       <c r="L94" s="4"/>
       <c r="M94" s="4"/>
       <c r="N94" s="4"/>
       <c r="O94" s="4"/>
       <c r="P94" s="4"/>
-      <c r="Q94" s="7"/>
-      <c r="R94" s="7"/>
-      <c r="S94" s="7"/>
-      <c r="T94" s="7"/>
-      <c r="U94" s="7"/>
-      <c r="V94" s="7"/>
-      <c r="W94" s="7"/>
-      <c r="X94" s="7"/>
+      <c r="Q94" s="6"/>
+      <c r="R94" s="6"/>
+      <c r="S94" s="6"/>
+      <c r="T94" s="6"/>
+      <c r="U94" s="6"/>
+      <c r="V94" s="6"/>
+      <c r="W94" s="6"/>
+      <c r="X94" s="6"/>
       <c r="Y94" s="4"/>
       <c r="Z94" s="6"/>
     </row>
-    <row r="95" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
-      <c r="H95" s="4"/>
-      <c r="I95" s="4"/>
-      <c r="J95" s="4"/>
-      <c r="K95" s="4"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="11"/>
+      <c r="J95" s="11"/>
+      <c r="K95" s="11"/>
       <c r="L95" s="4"/>
       <c r="M95" s="4"/>
       <c r="N95" s="4"/>
       <c r="O95" s="4"/>
       <c r="P95" s="4"/>
-      <c r="Q95" s="7"/>
-      <c r="R95" s="7"/>
-      <c r="S95" s="7"/>
-      <c r="T95" s="7"/>
-      <c r="U95" s="7"/>
-      <c r="V95" s="7"/>
-      <c r="W95" s="7"/>
-      <c r="X95" s="7"/>
+      <c r="Q95" s="6"/>
+      <c r="R95" s="6"/>
+      <c r="S95" s="6"/>
+      <c r="T95" s="6"/>
+      <c r="U95" s="6"/>
+      <c r="V95" s="6"/>
+      <c r="W95" s="6"/>
+      <c r="X95" s="6"/>
       <c r="Y95" s="4"/>
       <c r="Z95" s="6"/>
     </row>
-    <row r="96" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
-      <c r="H96" s="4"/>
-      <c r="I96" s="4"/>
-      <c r="J96" s="4"/>
-      <c r="K96" s="4"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="11"/>
+      <c r="J96" s="11"/>
+      <c r="K96" s="11"/>
       <c r="L96" s="4"/>
       <c r="M96" s="4"/>
-      <c r="Q96" s="7"/>
-      <c r="R96" s="7"/>
-      <c r="S96" s="7"/>
-      <c r="T96" s="7"/>
-      <c r="U96" s="7"/>
-      <c r="V96" s="7"/>
-      <c r="W96" s="7"/>
-      <c r="X96" s="7"/>
+      <c r="N96" s="4"/>
+      <c r="O96" s="4"/>
+      <c r="P96" s="4"/>
+      <c r="Q96" s="6"/>
+      <c r="R96" s="6"/>
+      <c r="S96" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="T96" s="6"/>
+      <c r="U96" s="6"/>
+      <c r="V96" s="6"/>
+      <c r="W96" s="6"/>
+      <c r="X96" s="6"/>
       <c r="Y96" s="4"/>
       <c r="Z96" s="6"/>
     </row>
-    <row r="97" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A97" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
-      <c r="H97" s="4"/>
-      <c r="I97" s="4"/>
-      <c r="J97" s="4"/>
-      <c r="K97" s="4"/>
+    <row r="97" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="11"/>
+      <c r="J97" s="11"/>
+      <c r="K97" s="11"/>
       <c r="L97" s="4"/>
       <c r="M97" s="4"/>
-      <c r="Q97" s="7"/>
-      <c r="R97" s="7"/>
-      <c r="S97" s="7"/>
-      <c r="T97" s="7"/>
-      <c r="U97" s="7"/>
-      <c r="V97" s="7"/>
-      <c r="W97" s="7"/>
-      <c r="X97" s="7"/>
+      <c r="N97" s="4"/>
+      <c r="O97" s="4"/>
+      <c r="P97" s="4"/>
+      <c r="Q97" s="6"/>
+      <c r="R97" s="6"/>
+      <c r="S97" s="6"/>
+      <c r="T97" s="6"/>
+      <c r="U97" s="6"/>
+      <c r="V97" s="6"/>
+      <c r="W97" s="6"/>
+      <c r="X97" s="6"/>
       <c r="Y97" s="4"/>
       <c r="Z97" s="6"/>
     </row>
-    <row r="98" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A98" s="4" t="s">
-        <v>33</v>
-      </c>
+    <row r="98" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A98" s="4"/>
       <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
-      <c r="I98" s="4"/>
-      <c r="J98" s="4"/>
-      <c r="K98" s="4"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="11"/>
+      <c r="J98" s="11"/>
+      <c r="K98" s="11"/>
       <c r="L98" s="4"/>
       <c r="M98" s="4"/>
-      <c r="Q98" s="7"/>
-      <c r="R98" s="7"/>
-      <c r="S98" s="7"/>
-      <c r="T98" s="7"/>
-      <c r="U98" s="7"/>
-      <c r="V98" s="7"/>
-      <c r="W98" s="7"/>
-      <c r="X98" s="7"/>
+      <c r="N98" s="4"/>
+      <c r="O98" s="4"/>
+      <c r="P98" s="4"/>
+      <c r="Q98" s="6"/>
+      <c r="R98" s="6"/>
+      <c r="S98" s="6"/>
+      <c r="T98" s="6"/>
+      <c r="U98" s="6"/>
+      <c r="V98" s="6"/>
+      <c r="W98" s="6"/>
+      <c r="X98" s="6"/>
       <c r="Y98" s="4"/>
       <c r="Z98" s="6"/>
     </row>
-    <row r="99" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A99" s="4" t="s">
-        <v>34</v>
-      </c>
+    <row r="99" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A99" s="4"/>
       <c r="B99" s="4"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
-      <c r="H99" s="4"/>
-      <c r="I99" s="4"/>
-      <c r="J99" s="4"/>
-      <c r="K99" s="4"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="11"/>
+      <c r="J99" s="11"/>
+      <c r="K99" s="11"/>
       <c r="L99" s="4"/>
       <c r="M99" s="4"/>
       <c r="N99" s="4"/>
       <c r="O99" s="4"/>
       <c r="P99" s="4"/>
-      <c r="Q99" s="7"/>
-      <c r="R99" s="7"/>
-      <c r="S99" s="7"/>
-      <c r="T99" s="7"/>
-      <c r="U99" s="7"/>
-      <c r="V99" s="7"/>
-      <c r="W99" s="7"/>
-      <c r="X99" s="7"/>
+      <c r="Q99" s="6"/>
+      <c r="R99" s="6"/>
+      <c r="S99" s="6"/>
+      <c r="T99" s="6"/>
+      <c r="U99" s="6"/>
+      <c r="V99" s="6"/>
+      <c r="W99" s="6"/>
+      <c r="X99" s="6"/>
       <c r="Y99" s="4"/>
       <c r="Z99" s="6"/>
     </row>
-    <row r="100" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="s">
-        <v>9</v>
-      </c>
+    <row r="100" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A100" s="4"/>
       <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="4"/>
-      <c r="I100" s="4"/>
-      <c r="J100" s="4"/>
-      <c r="K100" s="4"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="11"/>
+      <c r="J100" s="11"/>
+      <c r="K100" s="11"/>
       <c r="L100" s="4"/>
       <c r="M100" s="4"/>
       <c r="N100" s="4"/>
       <c r="O100" s="4"/>
       <c r="P100" s="4"/>
-      <c r="Q100" s="4"/>
-      <c r="R100" s="4"/>
-      <c r="S100" s="4"/>
-      <c r="T100" s="4"/>
-      <c r="U100" s="4"/>
-      <c r="V100" s="4"/>
-      <c r="W100" s="4"/>
-      <c r="X100" s="4"/>
+      <c r="Q100" s="6"/>
+      <c r="R100" s="6"/>
+      <c r="S100" s="6"/>
+      <c r="T100" s="6"/>
+      <c r="U100" s="6"/>
+      <c r="V100" s="6"/>
+      <c r="W100" s="6"/>
+      <c r="X100" s="6"/>
       <c r="Y100" s="4"/>
       <c r="Z100" s="6"/>
     </row>
-    <row r="101" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A101" s="4"/>
       <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="4"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
-      <c r="H101" s="4"/>
-      <c r="I101" s="4"/>
-      <c r="J101" s="4"/>
-      <c r="K101" s="4"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="11"/>
+      <c r="J101" s="11"/>
+      <c r="K101" s="11"/>
       <c r="L101" s="4"/>
       <c r="M101" s="4"/>
       <c r="N101" s="4"/>
       <c r="O101" s="4"/>
       <c r="P101" s="4"/>
-      <c r="Q101" s="4"/>
-      <c r="R101" s="4"/>
-      <c r="S101" s="4"/>
-      <c r="T101" s="4"/>
-      <c r="U101" s="4"/>
-      <c r="V101" s="4"/>
-      <c r="W101" s="4"/>
-      <c r="X101" s="4"/>
+      <c r="Q101" s="6"/>
+      <c r="R101" s="6"/>
+      <c r="S101" s="6"/>
+      <c r="T101" s="6"/>
+      <c r="U101" s="6"/>
+      <c r="V101" s="6"/>
+      <c r="W101" s="6"/>
+      <c r="X101" s="6"/>
       <c r="Y101" s="4"/>
       <c r="Z101" s="6"/>
     </row>
-    <row r="102" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A102" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
-      <c r="F102" s="4"/>
-      <c r="G102" s="4"/>
-      <c r="H102" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I102" s="4"/>
-      <c r="J102" s="4"/>
-      <c r="K102" s="4"/>
+    <row r="102" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="11"/>
+      <c r="I102" s="11"/>
+      <c r="J102" s="11"/>
+      <c r="K102" s="11"/>
       <c r="L102" s="4"/>
       <c r="M102" s="4"/>
       <c r="N102" s="4"/>
       <c r="O102" s="4"/>
       <c r="P102" s="4"/>
-      <c r="Q102" s="4"/>
-      <c r="R102" s="4"/>
-      <c r="S102" s="4"/>
-      <c r="T102" s="4"/>
-      <c r="U102" s="4"/>
-      <c r="V102" s="4"/>
-      <c r="W102" s="4"/>
-      <c r="X102" s="4"/>
+      <c r="Q102" s="6"/>
+      <c r="R102" s="6"/>
+      <c r="S102" s="6"/>
+      <c r="T102" s="6"/>
+      <c r="U102" s="6"/>
+      <c r="V102" s="6"/>
+      <c r="W102" s="6"/>
+      <c r="X102" s="6"/>
       <c r="Y102" s="4"/>
       <c r="Z102" s="6"/>
     </row>
-    <row r="103" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
-      <c r="G103" s="4"/>
-      <c r="H103" s="4"/>
-      <c r="I103" s="4"/>
-      <c r="J103" s="4"/>
-      <c r="K103" s="4"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="11"/>
+      <c r="I103" s="11"/>
+      <c r="J103" s="11"/>
+      <c r="K103" s="11"/>
       <c r="L103" s="4"/>
       <c r="M103" s="4"/>
       <c r="N103" s="4"/>
       <c r="O103" s="4"/>
       <c r="P103" s="4"/>
-      <c r="Q103" s="4"/>
-      <c r="R103" s="4"/>
-      <c r="S103" s="4"/>
-      <c r="T103" s="4"/>
-      <c r="U103" s="4"/>
-      <c r="V103" s="4"/>
-      <c r="W103" s="4"/>
-      <c r="X103" s="4"/>
+      <c r="Q103" s="6"/>
+      <c r="R103" s="6"/>
+      <c r="S103" s="6"/>
+      <c r="T103" s="6"/>
+      <c r="U103" s="6"/>
+      <c r="V103" s="6"/>
+      <c r="W103" s="6"/>
+      <c r="X103" s="6"/>
       <c r="Y103" s="4"/>
       <c r="Z103" s="6"/>
     </row>
-    <row r="104" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
-      <c r="C104" s="4"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="4"/>
-      <c r="F104" s="4"/>
-      <c r="G104" s="4"/>
-      <c r="H104" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I104" s="4"/>
-      <c r="J104" s="4"/>
-      <c r="K104" s="4"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="11"/>
+      <c r="I104" s="11"/>
+      <c r="J104" s="11"/>
+      <c r="K104" s="11"/>
       <c r="L104" s="4"/>
       <c r="M104" s="4"/>
       <c r="N104" s="4"/>
       <c r="O104" s="4"/>
       <c r="P104" s="4"/>
-      <c r="Q104" s="4"/>
-      <c r="R104" s="4"/>
-      <c r="S104" s="4"/>
-      <c r="T104" s="4"/>
-      <c r="U104" s="4"/>
-      <c r="V104" s="4"/>
-      <c r="W104" s="4"/>
-      <c r="X104" s="4"/>
+      <c r="Q104" s="6"/>
+      <c r="R104" s="6"/>
+      <c r="S104" s="6"/>
+      <c r="T104" s="6"/>
+      <c r="U104" s="6"/>
+      <c r="V104" s="6"/>
+      <c r="W104" s="6"/>
+      <c r="X104" s="6"/>
       <c r="Y104" s="4"/>
       <c r="Z104" s="6"/>
     </row>
-    <row r="105" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="4" t="s">
-        <v>46</v>
-      </c>
+    <row r="105" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A105" s="4"/>
       <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
-      <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
-      <c r="H105" s="4"/>
-      <c r="I105" s="4"/>
-      <c r="J105" s="4"/>
-      <c r="K105" s="4"/>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="11"/>
+      <c r="H105" s="11"/>
+      <c r="I105" s="11"/>
+      <c r="J105" s="11"/>
+      <c r="K105" s="11"/>
       <c r="L105" s="4"/>
       <c r="M105" s="4"/>
       <c r="N105" s="4"/>
       <c r="O105" s="4"/>
       <c r="P105" s="4"/>
-      <c r="Q105" s="4"/>
-      <c r="R105" s="4"/>
-      <c r="S105" s="4"/>
-      <c r="T105" s="4"/>
-      <c r="U105" s="4"/>
-      <c r="V105" s="4"/>
-      <c r="W105" s="4"/>
-      <c r="X105" s="4"/>
+      <c r="Q105" s="6"/>
+      <c r="R105" s="6"/>
+      <c r="S105" s="6"/>
+      <c r="T105" s="6"/>
+      <c r="U105" s="6"/>
+      <c r="V105" s="6"/>
+      <c r="W105" s="6"/>
+      <c r="X105" s="6"/>
       <c r="Y105" s="4"/>
-    </row>
-    <row r="106" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="Z105" s="6"/>
+    </row>
+    <row r="106" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
-      <c r="E106" s="4"/>
-      <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
-      <c r="H106" s="4"/>
-      <c r="I106" s="4"/>
-      <c r="J106" s="4"/>
-      <c r="K106" s="4"/>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="11"/>
+      <c r="G106" s="11"/>
+      <c r="H106" s="11"/>
+      <c r="I106" s="11"/>
+      <c r="J106" s="11"/>
+      <c r="K106" s="11"/>
       <c r="L106" s="4"/>
       <c r="M106" s="4"/>
       <c r="N106" s="4"/>
       <c r="O106" s="4"/>
       <c r="P106" s="4"/>
-      <c r="Q106" s="4"/>
-      <c r="R106" s="4"/>
-      <c r="S106" s="4"/>
-      <c r="T106" s="4"/>
-      <c r="U106" s="4"/>
-      <c r="V106" s="4"/>
-      <c r="W106" s="4"/>
-      <c r="X106" s="4"/>
+      <c r="Q106" s="6"/>
+      <c r="R106" s="6"/>
+      <c r="S106" s="6"/>
+      <c r="T106" s="6"/>
+      <c r="U106" s="6"/>
+      <c r="V106" s="6"/>
+      <c r="W106" s="6"/>
+      <c r="X106" s="6"/>
       <c r="Y106" s="4"/>
-    </row>
-    <row r="107" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="Z106" s="6"/>
+    </row>
+    <row r="107" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
-      <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
-      <c r="H107" s="4"/>
-      <c r="I107" s="4"/>
-      <c r="J107" s="4"/>
-      <c r="K107" s="4"/>
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="11"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="11"/>
+      <c r="I107" s="11"/>
+      <c r="J107" s="11"/>
+      <c r="K107" s="11"/>
       <c r="L107" s="4"/>
       <c r="M107" s="4"/>
       <c r="N107" s="4"/>
       <c r="O107" s="4"/>
       <c r="P107" s="4"/>
-      <c r="Q107" s="4"/>
-      <c r="R107" s="4"/>
-      <c r="S107" s="4"/>
-      <c r="T107" s="4"/>
-      <c r="U107" s="4"/>
-      <c r="V107" s="4"/>
-      <c r="W107" s="4"/>
-      <c r="X107" s="4"/>
+      <c r="Q107" s="6"/>
+      <c r="R107" s="6"/>
+      <c r="S107" s="6"/>
+      <c r="T107" s="6"/>
+      <c r="U107" s="6"/>
+      <c r="V107" s="6"/>
+      <c r="W107" s="6"/>
+      <c r="X107" s="6"/>
       <c r="Y107" s="4"/>
-    </row>
-    <row r="108" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="Z107" s="6"/>
+    </row>
+    <row r="108" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="11"/>
+      <c r="I108" s="11"/>
+      <c r="J108" s="11"/>
+      <c r="K108" s="11"/>
+      <c r="L108" s="4"/>
+      <c r="M108" s="4"/>
       <c r="N108" s="4"/>
       <c r="O108" s="4"/>
       <c r="P108" s="4"/>
-      <c r="Q108" s="4"/>
-      <c r="R108" s="4"/>
-      <c r="S108" s="4"/>
-      <c r="T108" s="4"/>
-      <c r="U108" s="4"/>
-      <c r="V108" s="4"/>
-      <c r="W108" s="4"/>
-      <c r="X108" s="4"/>
+      <c r="Q108" s="6"/>
+      <c r="R108" s="6"/>
+      <c r="S108" s="6"/>
+      <c r="T108" s="6"/>
+      <c r="U108" s="6"/>
+      <c r="V108" s="6"/>
+      <c r="W108" s="6"/>
+      <c r="X108" s="6"/>
       <c r="Y108" s="4"/>
-    </row>
-    <row r="109" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="Z108" s="6"/>
+    </row>
+    <row r="109" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="11"/>
+      <c r="H109" s="11"/>
+      <c r="I109" s="11"/>
+      <c r="J109" s="11"/>
+      <c r="K109" s="11"/>
+      <c r="L109" s="4"/>
+      <c r="M109" s="4"/>
       <c r="N109" s="4"/>
       <c r="O109" s="4"/>
       <c r="P109" s="4"/>
-      <c r="Q109" s="4"/>
-      <c r="R109" s="4"/>
-      <c r="S109" s="4"/>
-      <c r="T109" s="4"/>
-      <c r="U109" s="4"/>
-      <c r="V109" s="4"/>
-      <c r="W109" s="4"/>
-      <c r="X109" s="4"/>
+      <c r="Q109" s="6"/>
+      <c r="R109" s="6"/>
+      <c r="S109" s="6"/>
+      <c r="T109" s="6"/>
+      <c r="U109" s="6"/>
+      <c r="V109" s="6"/>
+      <c r="W109" s="6"/>
+      <c r="X109" s="6"/>
       <c r="Y109" s="4"/>
-    </row>
-    <row r="110" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="Z109" s="6"/>
+    </row>
+    <row r="110" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="11"/>
+      <c r="H110" s="11"/>
+      <c r="I110" s="11"/>
+      <c r="J110" s="11"/>
+      <c r="K110" s="11"/>
+      <c r="L110" s="4"/>
+      <c r="M110" s="4"/>
       <c r="N110" s="4"/>
       <c r="O110" s="4"/>
       <c r="P110" s="4"/>
-      <c r="Q110" s="4"/>
-      <c r="R110" s="4"/>
-      <c r="S110" s="4"/>
-      <c r="T110" s="4"/>
-      <c r="U110" s="4"/>
-      <c r="V110" s="4"/>
-      <c r="W110" s="4"/>
-      <c r="X110" s="4"/>
+      <c r="Q110" s="6"/>
+      <c r="R110" s="6"/>
+      <c r="S110" s="6"/>
+      <c r="T110" s="6"/>
+      <c r="U110" s="6"/>
+      <c r="V110" s="6"/>
+      <c r="W110" s="6"/>
+      <c r="X110" s="6"/>
       <c r="Y110" s="4"/>
-    </row>
-    <row r="111" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="Z110" s="6"/>
+    </row>
+    <row r="111" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
-      <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
+      <c r="C111" s="11"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="11"/>
+      <c r="G111" s="11"/>
+      <c r="H111" s="11"/>
+      <c r="I111" s="11"/>
+      <c r="J111" s="11"/>
+      <c r="K111" s="11"/>
+      <c r="L111" s="4"/>
+      <c r="M111" s="4"/>
       <c r="N111" s="4"/>
       <c r="O111" s="4"/>
       <c r="P111" s="4"/>
-      <c r="Q111" s="4"/>
-      <c r="R111" s="4"/>
-      <c r="S111" s="4"/>
-      <c r="T111" s="4"/>
-      <c r="U111" s="4"/>
-      <c r="V111" s="4"/>
-      <c r="W111" s="4"/>
-      <c r="X111" s="4"/>
+      <c r="Q111" s="6"/>
+      <c r="R111" s="6"/>
+      <c r="S111" s="6"/>
+      <c r="T111" s="6"/>
+      <c r="U111" s="6"/>
+      <c r="V111" s="6"/>
+      <c r="W111" s="6"/>
+      <c r="X111" s="6"/>
       <c r="Y111" s="4"/>
-    </row>
-    <row r="112" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="Z111" s="6"/>
+    </row>
+    <row r="112" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
-      <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="4"/>
-      <c r="F112" s="4"/>
-      <c r="G112" s="4"/>
-      <c r="H112" s="4"/>
-      <c r="I112" s="4"/>
-      <c r="J112" s="4"/>
-      <c r="K112" s="4"/>
+      <c r="C112" s="11"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="11"/>
+      <c r="H112" s="11"/>
+      <c r="I112" s="11"/>
+      <c r="J112" s="11"/>
+      <c r="K112" s="11"/>
       <c r="L112" s="4"/>
       <c r="M112" s="4"/>
       <c r="N112" s="4"/>
       <c r="O112" s="4"/>
       <c r="P112" s="4"/>
-      <c r="Q112" s="4"/>
-      <c r="R112" s="4"/>
-      <c r="S112" s="4"/>
-      <c r="T112" s="4"/>
-      <c r="U112" s="4"/>
-      <c r="V112" s="4"/>
-      <c r="W112" s="4"/>
-      <c r="X112" s="4"/>
+      <c r="Q112" s="6"/>
+      <c r="R112" s="6"/>
+      <c r="S112" s="6"/>
+      <c r="T112" s="6"/>
+      <c r="U112" s="6"/>
+      <c r="V112" s="6"/>
+      <c r="W112" s="6"/>
+      <c r="X112" s="6"/>
       <c r="Y112" s="4"/>
+      <c r="Z112" s="6"/>
+    </row>
+    <row r="113" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="11"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="11"/>
+      <c r="H113" s="11"/>
+      <c r="I113" s="11"/>
+      <c r="J113" s="11"/>
+      <c r="K113" s="11"/>
+      <c r="L113" s="4"/>
+      <c r="M113" s="4"/>
+      <c r="N113" s="4"/>
+      <c r="O113" s="4"/>
+      <c r="P113" s="4"/>
+      <c r="Q113" s="6"/>
+      <c r="R113" s="6"/>
+      <c r="S113" s="6"/>
+      <c r="T113" s="6"/>
+      <c r="U113" s="6"/>
+      <c r="V113" s="6"/>
+      <c r="W113" s="6"/>
+      <c r="X113" s="6"/>
+      <c r="Y113" s="4"/>
+      <c r="Z113" s="6"/>
+    </row>
+    <row r="114" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A114" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B114" s="4"/>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="11"/>
+      <c r="H114" s="11"/>
+      <c r="I114" s="11"/>
+      <c r="J114" s="11"/>
+      <c r="K114" s="11"/>
+      <c r="L114" s="4"/>
+      <c r="M114" s="4"/>
+      <c r="N114" s="4"/>
+      <c r="O114" s="4"/>
+      <c r="P114" s="4"/>
+      <c r="Q114" s="6"/>
+      <c r="R114" s="6"/>
+      <c r="S114" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="T114" s="6"/>
+      <c r="U114" s="6"/>
+      <c r="V114" s="6"/>
+      <c r="W114" s="6"/>
+      <c r="X114" s="6"/>
+      <c r="Y114" s="4"/>
+      <c r="Z114" s="6"/>
+    </row>
+    <row r="115" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
+      <c r="G115" s="11"/>
+      <c r="H115" s="11"/>
+      <c r="I115" s="11"/>
+      <c r="J115" s="11"/>
+      <c r="K115" s="11"/>
+      <c r="L115" s="4"/>
+      <c r="M115" s="4"/>
+      <c r="N115" s="4"/>
+      <c r="O115" s="4"/>
+      <c r="P115" s="4"/>
+      <c r="Q115" s="6"/>
+      <c r="R115" s="6"/>
+      <c r="S115" s="6"/>
+      <c r="T115" s="6"/>
+      <c r="U115" s="6"/>
+      <c r="V115" s="6"/>
+      <c r="W115" s="6"/>
+      <c r="X115" s="6"/>
+      <c r="Y115" s="4"/>
+      <c r="Z115" s="6"/>
+    </row>
+    <row r="116" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A116" s="4"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="11"/>
+      <c r="G116" s="11"/>
+      <c r="H116" s="11"/>
+      <c r="I116" s="11"/>
+      <c r="J116" s="11"/>
+      <c r="K116" s="11"/>
+      <c r="L116" s="4"/>
+      <c r="M116" s="4"/>
+      <c r="N116" s="4"/>
+      <c r="O116" s="4"/>
+      <c r="P116" s="4"/>
+      <c r="Q116" s="6"/>
+      <c r="R116" s="6"/>
+      <c r="S116" s="6"/>
+      <c r="T116" s="6"/>
+      <c r="U116" s="6"/>
+      <c r="V116" s="6"/>
+      <c r="W116" s="6"/>
+      <c r="X116" s="6"/>
+      <c r="Y116" s="4"/>
+      <c r="Z116" s="6"/>
+    </row>
+    <row r="117" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A117" s="4"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
+      <c r="G117" s="11"/>
+      <c r="H117" s="11"/>
+      <c r="I117" s="11"/>
+      <c r="J117" s="11"/>
+      <c r="K117" s="11"/>
+      <c r="L117" s="4"/>
+      <c r="M117" s="4"/>
+      <c r="N117" s="4"/>
+      <c r="O117" s="4"/>
+      <c r="P117" s="4"/>
+      <c r="Q117" s="6"/>
+      <c r="R117" s="6"/>
+      <c r="S117" s="6"/>
+      <c r="T117" s="6"/>
+      <c r="U117" s="6"/>
+      <c r="V117" s="6"/>
+      <c r="W117" s="6"/>
+      <c r="X117" s="6"/>
+      <c r="Y117" s="4"/>
+      <c r="Z117" s="6"/>
+    </row>
+    <row r="118" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="11"/>
+      <c r="H118" s="11"/>
+      <c r="I118" s="11"/>
+      <c r="J118" s="11"/>
+      <c r="K118" s="11"/>
+      <c r="L118" s="4"/>
+      <c r="M118" s="4"/>
+      <c r="N118" s="4"/>
+      <c r="O118" s="4"/>
+      <c r="P118" s="4"/>
+      <c r="Q118" s="6"/>
+      <c r="R118" s="6"/>
+      <c r="S118" s="6"/>
+      <c r="T118" s="6"/>
+      <c r="U118" s="6"/>
+      <c r="V118" s="6"/>
+      <c r="W118" s="6"/>
+      <c r="X118" s="6"/>
+      <c r="Y118" s="4"/>
+      <c r="Z118" s="6"/>
+    </row>
+    <row r="119" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A119" s="9"/>
+      <c r="B119" s="10"/>
+      <c r="C119" s="11"/>
+      <c r="D119" s="11"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="11"/>
+      <c r="G119" s="11"/>
+      <c r="H119" s="11"/>
+      <c r="I119" s="11"/>
+      <c r="J119" s="11"/>
+      <c r="K119" s="11"/>
+      <c r="L119" s="4"/>
+      <c r="M119" s="4"/>
+      <c r="N119" s="4"/>
+      <c r="O119" s="4"/>
+      <c r="P119" s="4"/>
+      <c r="Q119" s="6"/>
+      <c r="R119" s="6"/>
+      <c r="S119" s="6"/>
+      <c r="T119" s="6"/>
+      <c r="U119" s="6"/>
+      <c r="V119" s="6"/>
+      <c r="W119" s="6"/>
+      <c r="X119" s="6"/>
+      <c r="Y119" s="4"/>
+      <c r="Z119" s="6"/>
+    </row>
+    <row r="120" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A120" s="9"/>
+      <c r="B120" s="10"/>
+      <c r="C120" s="11"/>
+      <c r="D120" s="11"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="11"/>
+      <c r="G120" s="11"/>
+      <c r="H120" s="11"/>
+      <c r="I120" s="11"/>
+      <c r="J120" s="11"/>
+      <c r="K120" s="11"/>
+      <c r="L120" s="4"/>
+      <c r="M120" s="4"/>
+      <c r="N120" s="4"/>
+      <c r="O120" s="4"/>
+      <c r="P120" s="4"/>
+      <c r="Q120" s="6"/>
+      <c r="R120" s="6"/>
+      <c r="S120" s="6"/>
+      <c r="T120" s="6"/>
+      <c r="U120" s="6"/>
+      <c r="V120" s="6"/>
+      <c r="W120" s="6"/>
+      <c r="X120" s="6"/>
+      <c r="Y120" s="4"/>
+      <c r="Z120" s="6"/>
+    </row>
+    <row r="121" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A121" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
+      <c r="H121" s="4"/>
+      <c r="I121" s="4"/>
+      <c r="J121" s="4"/>
+      <c r="K121" s="4"/>
+      <c r="L121" s="4"/>
+      <c r="M121" s="4"/>
+      <c r="N121" s="4"/>
+      <c r="O121" s="4"/>
+      <c r="P121" s="4"/>
+      <c r="Q121" s="7"/>
+      <c r="R121" s="7"/>
+      <c r="S121" s="7"/>
+      <c r="T121" s="7"/>
+      <c r="U121" s="7"/>
+      <c r="V121" s="7"/>
+      <c r="W121" s="7"/>
+      <c r="X121" s="7"/>
+      <c r="Y121" s="4"/>
+      <c r="Z121" s="6"/>
+    </row>
+    <row r="122" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A122" s="4"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="4"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
+      <c r="H122" s="4"/>
+      <c r="I122" s="4"/>
+      <c r="J122" s="4"/>
+      <c r="K122" s="4"/>
+      <c r="L122" s="4"/>
+      <c r="M122" s="4"/>
+      <c r="N122" s="4"/>
+      <c r="O122" s="4"/>
+      <c r="P122" s="4"/>
+      <c r="Q122" s="7"/>
+      <c r="R122" s="7"/>
+      <c r="S122" s="7"/>
+      <c r="T122" s="7"/>
+      <c r="U122" s="7"/>
+      <c r="V122" s="7"/>
+      <c r="W122" s="7"/>
+      <c r="X122" s="7"/>
+      <c r="Y122" s="4"/>
+      <c r="Z122" s="6"/>
+    </row>
+    <row r="123" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A123" s="4"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="4"/>
+      <c r="I123" s="4"/>
+      <c r="J123" s="4"/>
+      <c r="K123" s="4"/>
+      <c r="L123" s="4"/>
+      <c r="M123" s="4"/>
+      <c r="N123" s="4"/>
+      <c r="O123" s="4"/>
+      <c r="P123" s="4"/>
+      <c r="Q123" s="7"/>
+      <c r="R123" s="7"/>
+      <c r="S123" s="7"/>
+      <c r="T123" s="7"/>
+      <c r="U123" s="7"/>
+      <c r="V123" s="7"/>
+      <c r="W123" s="7"/>
+      <c r="X123" s="7"/>
+      <c r="Y123" s="4"/>
+      <c r="Z123" s="6"/>
+    </row>
+    <row r="124" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A124" s="4"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
+      <c r="I124" s="4"/>
+      <c r="J124" s="4"/>
+      <c r="K124" s="4"/>
+      <c r="L124" s="4"/>
+      <c r="M124" s="4"/>
+      <c r="N124" s="4"/>
+      <c r="O124" s="4"/>
+      <c r="P124" s="4"/>
+      <c r="Q124" s="7"/>
+      <c r="R124" s="7"/>
+      <c r="S124" s="7"/>
+      <c r="T124" s="7"/>
+      <c r="U124" s="7"/>
+      <c r="V124" s="7"/>
+      <c r="W124" s="7"/>
+      <c r="X124" s="7"/>
+      <c r="Y124" s="4"/>
+      <c r="Z124" s="6"/>
+    </row>
+    <row r="125" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A125" s="4"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4"/>
+      <c r="I125" s="4"/>
+      <c r="J125" s="4"/>
+      <c r="K125" s="4"/>
+      <c r="L125" s="4"/>
+      <c r="M125" s="4"/>
+      <c r="Q125" s="7"/>
+      <c r="R125" s="7"/>
+      <c r="S125" s="7"/>
+      <c r="T125" s="7"/>
+      <c r="U125" s="7"/>
+      <c r="V125" s="7"/>
+      <c r="W125" s="7"/>
+      <c r="X125" s="7"/>
+      <c r="Y125" s="4"/>
+      <c r="Z125" s="6"/>
+    </row>
+    <row r="126" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A126" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
+      <c r="H126" s="4"/>
+      <c r="I126" s="4"/>
+      <c r="J126" s="4"/>
+      <c r="K126" s="4"/>
+      <c r="L126" s="4"/>
+      <c r="M126" s="4"/>
+      <c r="Q126" s="7"/>
+      <c r="R126" s="7"/>
+      <c r="S126" s="7"/>
+      <c r="T126" s="7"/>
+      <c r="U126" s="7"/>
+      <c r="V126" s="7"/>
+      <c r="W126" s="7"/>
+      <c r="X126" s="7"/>
+      <c r="Y126" s="4"/>
+      <c r="Z126" s="6"/>
+    </row>
+    <row r="127" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A127" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="4"/>
+      <c r="I127" s="4"/>
+      <c r="J127" s="4"/>
+      <c r="K127" s="4"/>
+      <c r="L127" s="4"/>
+      <c r="M127" s="4"/>
+      <c r="Q127" s="7"/>
+      <c r="R127" s="7"/>
+      <c r="S127" s="7"/>
+      <c r="T127" s="7"/>
+      <c r="U127" s="7"/>
+      <c r="V127" s="7"/>
+      <c r="W127" s="7"/>
+      <c r="X127" s="7"/>
+      <c r="Y127" s="4"/>
+      <c r="Z127" s="6"/>
+    </row>
+    <row r="128" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A128" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B128" s="4"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="4"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
+      <c r="H128" s="4"/>
+      <c r="I128" s="4"/>
+      <c r="J128" s="4"/>
+      <c r="K128" s="4"/>
+      <c r="L128" s="4"/>
+      <c r="M128" s="4"/>
+      <c r="N128" s="4"/>
+      <c r="O128" s="4"/>
+      <c r="P128" s="4"/>
+      <c r="Q128" s="7"/>
+      <c r="R128" s="7"/>
+      <c r="S128" s="7"/>
+      <c r="T128" s="7"/>
+      <c r="U128" s="7"/>
+      <c r="V128" s="7"/>
+      <c r="W128" s="7"/>
+      <c r="X128" s="7"/>
+      <c r="Y128" s="4"/>
+      <c r="Z128" s="6"/>
+    </row>
+    <row r="129" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B129" s="4"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="4"/>
+      <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="4"/>
+      <c r="I129" s="4"/>
+      <c r="J129" s="4"/>
+      <c r="K129" s="4"/>
+      <c r="L129" s="4"/>
+      <c r="M129" s="4"/>
+      <c r="N129" s="4"/>
+      <c r="O129" s="4"/>
+      <c r="P129" s="4"/>
+      <c r="Q129" s="4"/>
+      <c r="R129" s="4"/>
+      <c r="S129" s="4"/>
+      <c r="T129" s="4"/>
+      <c r="U129" s="4"/>
+      <c r="V129" s="4"/>
+      <c r="W129" s="4"/>
+      <c r="X129" s="4"/>
+      <c r="Y129" s="4"/>
+      <c r="Z129" s="6"/>
+    </row>
+    <row r="130" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B130" s="4"/>
+      <c r="C130" s="4"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="4"/>
+      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
+      <c r="H130" s="4"/>
+      <c r="I130" s="4"/>
+      <c r="J130" s="4"/>
+      <c r="K130" s="4"/>
+      <c r="L130" s="4"/>
+      <c r="M130" s="4"/>
+      <c r="N130" s="4"/>
+      <c r="O130" s="4"/>
+      <c r="P130" s="4"/>
+      <c r="Q130" s="4"/>
+      <c r="R130" s="4"/>
+      <c r="S130" s="4"/>
+      <c r="T130" s="4"/>
+      <c r="U130" s="4"/>
+      <c r="V130" s="4"/>
+      <c r="W130" s="4"/>
+      <c r="X130" s="4"/>
+      <c r="Y130" s="4"/>
+      <c r="Z130" s="6"/>
+    </row>
+    <row r="131" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A131" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
+      <c r="H131" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I131" s="4"/>
+      <c r="J131" s="4"/>
+      <c r="K131" s="4"/>
+      <c r="L131" s="4"/>
+      <c r="M131" s="4"/>
+      <c r="N131" s="4"/>
+      <c r="O131" s="4"/>
+      <c r="P131" s="4"/>
+      <c r="Q131" s="4"/>
+      <c r="R131" s="4"/>
+      <c r="S131" s="4"/>
+      <c r="T131" s="4"/>
+      <c r="U131" s="4"/>
+      <c r="V131" s="4"/>
+      <c r="W131" s="4"/>
+      <c r="X131" s="4"/>
+      <c r="Y131" s="4"/>
+      <c r="Z131" s="6"/>
+    </row>
+    <row r="132" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A132" s="4"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="4"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="4"/>
+      <c r="F132" s="4"/>
+      <c r="G132" s="4"/>
+      <c r="H132" s="4"/>
+      <c r="I132" s="4"/>
+      <c r="J132" s="4"/>
+      <c r="K132" s="4"/>
+      <c r="L132" s="4"/>
+      <c r="M132" s="4"/>
+      <c r="N132" s="4"/>
+      <c r="O132" s="4"/>
+      <c r="P132" s="4"/>
+      <c r="Q132" s="4"/>
+      <c r="R132" s="4"/>
+      <c r="S132" s="4"/>
+      <c r="T132" s="4"/>
+      <c r="U132" s="4"/>
+      <c r="V132" s="4"/>
+      <c r="W132" s="4"/>
+      <c r="X132" s="4"/>
+      <c r="Y132" s="4"/>
+      <c r="Z132" s="6"/>
+    </row>
+    <row r="133" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A133" s="4"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="4"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="4"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
+      <c r="H133" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I133" s="4"/>
+      <c r="J133" s="4"/>
+      <c r="K133" s="4"/>
+      <c r="L133" s="4"/>
+      <c r="M133" s="4"/>
+      <c r="N133" s="4"/>
+      <c r="O133" s="4"/>
+      <c r="P133" s="4"/>
+      <c r="Q133" s="4"/>
+      <c r="R133" s="4"/>
+      <c r="S133" s="4"/>
+      <c r="T133" s="4"/>
+      <c r="U133" s="4"/>
+      <c r="V133" s="4"/>
+      <c r="W133" s="4"/>
+      <c r="X133" s="4"/>
+      <c r="Y133" s="4"/>
+      <c r="Z133" s="6"/>
+    </row>
+    <row r="134" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B134" s="4"/>
+      <c r="C134" s="4"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="4"/>
+      <c r="F134" s="4"/>
+      <c r="G134" s="4"/>
+      <c r="H134" s="4"/>
+      <c r="I134" s="4"/>
+      <c r="J134" s="4"/>
+      <c r="K134" s="4"/>
+      <c r="L134" s="4"/>
+      <c r="M134" s="4"/>
+      <c r="N134" s="4"/>
+      <c r="O134" s="4"/>
+      <c r="P134" s="4"/>
+      <c r="Q134" s="4"/>
+      <c r="R134" s="4"/>
+      <c r="S134" s="4"/>
+      <c r="T134" s="4"/>
+      <c r="U134" s="4"/>
+      <c r="V134" s="4"/>
+      <c r="W134" s="4"/>
+      <c r="X134" s="4"/>
+      <c r="Y134" s="4"/>
+    </row>
+    <row r="135" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A135" s="4"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="4"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
+      <c r="H135" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I135" s="4"/>
+      <c r="J135" s="4"/>
+      <c r="K135" s="4"/>
+      <c r="L135" s="4"/>
+      <c r="M135" s="4"/>
+      <c r="N135" s="4"/>
+      <c r="O135" s="4"/>
+      <c r="P135" s="4"/>
+      <c r="Q135" s="4"/>
+      <c r="R135" s="4"/>
+      <c r="S135" s="4"/>
+      <c r="T135" s="4"/>
+      <c r="U135" s="4"/>
+      <c r="V135" s="4"/>
+      <c r="W135" s="4"/>
+      <c r="X135" s="4"/>
+      <c r="Y135" s="4"/>
+    </row>
+    <row r="136" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A136" s="4"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="4"/>
+      <c r="D136" s="4"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
+      <c r="H136" s="4"/>
+      <c r="I136" s="4"/>
+      <c r="J136" s="4"/>
+      <c r="K136" s="4"/>
+      <c r="L136" s="4"/>
+      <c r="M136" s="4"/>
+      <c r="N136" s="4"/>
+      <c r="O136" s="4"/>
+      <c r="P136" s="4"/>
+      <c r="Q136" s="4"/>
+      <c r="R136" s="4"/>
+      <c r="S136" s="4"/>
+      <c r="T136" s="4"/>
+      <c r="U136" s="4"/>
+      <c r="V136" s="4"/>
+      <c r="W136" s="4"/>
+      <c r="X136" s="4"/>
+      <c r="Y136" s="4"/>
+    </row>
+    <row r="137" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A137" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B137" s="4"/>
+      <c r="C137" s="4"/>
+      <c r="D137" s="4"/>
+      <c r="E137" t="s">
+        <v>50</v>
+      </c>
+      <c r="N137" s="4"/>
+      <c r="O137" s="4"/>
+      <c r="P137" s="4"/>
+      <c r="Q137" s="4"/>
+      <c r="R137" s="4"/>
+      <c r="S137" s="4"/>
+      <c r="T137" s="4"/>
+      <c r="U137" s="4"/>
+      <c r="V137" s="4"/>
+      <c r="W137" s="4"/>
+      <c r="X137" s="4"/>
+      <c r="Y137" s="4"/>
+    </row>
+    <row r="138" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A138" s="4"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="4"/>
+      <c r="D138" s="4"/>
+      <c r="N138" s="4"/>
+      <c r="O138" s="4"/>
+      <c r="P138" s="4"/>
+      <c r="Q138" s="4"/>
+      <c r="R138" s="4"/>
+      <c r="S138" s="4"/>
+      <c r="T138" s="4"/>
+      <c r="U138" s="4"/>
+      <c r="V138" s="4"/>
+      <c r="W138" s="4"/>
+      <c r="X138" s="4"/>
+      <c r="Y138" s="4"/>
+    </row>
+    <row r="139" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A139" s="4"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="4"/>
+      <c r="D139" s="4"/>
+      <c r="N139" s="4"/>
+      <c r="O139" s="4"/>
+      <c r="P139" s="4"/>
+      <c r="Q139" s="4"/>
+      <c r="R139" s="4"/>
+      <c r="S139" s="4"/>
+      <c r="T139" s="4"/>
+      <c r="U139" s="4"/>
+      <c r="V139" s="4"/>
+      <c r="W139" s="4"/>
+      <c r="X139" s="4"/>
+      <c r="Y139" s="4"/>
+    </row>
+    <row r="140" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A140" s="4"/>
+      <c r="B140" s="4"/>
+      <c r="C140" s="4"/>
+      <c r="D140" s="4"/>
+      <c r="N140" s="4"/>
+      <c r="O140" s="4"/>
+      <c r="P140" s="4"/>
+      <c r="Q140" s="4"/>
+      <c r="R140" s="4"/>
+      <c r="S140" s="4"/>
+      <c r="T140" s="4"/>
+      <c r="U140" s="4"/>
+      <c r="V140" s="4"/>
+      <c r="W140" s="4"/>
+      <c r="X140" s="4"/>
+      <c r="Y140" s="4"/>
+    </row>
+    <row r="141" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A141" s="4"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="4"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="4"/>
+      <c r="F141" s="4"/>
+      <c r="G141" s="4"/>
+      <c r="H141" s="4"/>
+      <c r="I141" s="4"/>
+      <c r="J141" s="4"/>
+      <c r="K141" s="4"/>
+      <c r="L141" s="4"/>
+      <c r="M141" s="4"/>
+      <c r="N141" s="4"/>
+      <c r="O141" s="4"/>
+      <c r="P141" s="4"/>
+      <c r="Q141" s="4"/>
+      <c r="R141" s="4"/>
+      <c r="S141" s="4"/>
+      <c r="T141" s="4"/>
+      <c r="U141" s="4"/>
+      <c r="V141" s="4"/>
+      <c r="W141" s="4"/>
+      <c r="X141" s="4"/>
+      <c r="Y141" s="4"/>
+    </row>
+    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="E144" t="s">
+        <v>52</v>
+      </c>
+      <c r="M144" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E152" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E153" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A159" s="4" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="N25:P26"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="N22:P23"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="Y13:Z13"/>
     <mergeCell ref="S12:U12"/>
-    <mergeCell ref="S14:U15"/>
+    <mergeCell ref="S14:U19"/>
     <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A19:K19"/>
-    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="A38:K38"/>
+    <mergeCell ref="B39:K39"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B102" r:id="rId1" xr:uid="{3B35B103-BC5D-4E08-9F90-69CBA2C6FBF8}"/>
-    <hyperlink ref="A100" r:id="rId2" xr:uid="{00C85AE1-58FB-4E44-8EAD-0F7829AA0F0B}"/>
-    <hyperlink ref="B20" r:id="rId3" xr:uid="{F6741D1E-BDC3-43E8-B3DF-F9324CF87D9D}"/>
+    <hyperlink ref="B131" r:id="rId1" xr:uid="{3B35B103-BC5D-4E08-9F90-69CBA2C6FBF8}"/>
+    <hyperlink ref="A129" r:id="rId2" xr:uid="{00C85AE1-58FB-4E44-8EAD-0F7829AA0F0B}"/>
+    <hyperlink ref="B39" r:id="rId3" xr:uid="{F6741D1E-BDC3-43E8-B3DF-F9324CF87D9D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>

--- a/Bài Test MiGrate với máy ảo.xlsx
+++ b/Bài Test MiGrate với máy ảo.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TÀI LIỆU NÂNG CẤP WINSERVER_2012_TO_2022\UpdateWinServer2012to2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741BA738-F947-48B2-9A78-9F669EA7CF76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F640A08D-6D27-4352-8F01-7D3FD126A7F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Bài Test nâng Winserver" sheetId="1" r:id="rId1"/>
-    <sheet name="Hệ điều hành của PDC" sheetId="2" r:id="rId2"/>
-    <sheet name="Chính sách Map ổ đĩa." sheetId="6" r:id="rId3"/>
-    <sheet name="Các bước thực hiện Migrate" sheetId="7" r:id="rId4"/>
+    <sheet name="Bài Test VMWare" sheetId="1" r:id="rId1"/>
+    <sheet name="Triển khai thực tế." sheetId="8" r:id="rId2"/>
+    <sheet name="Hệ điều hành của PDC" sheetId="2" r:id="rId3"/>
+    <sheet name="Chính sách Map ổ đĩa." sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
   <si>
     <t>Bước 1:</t>
   </si>
@@ -197,12 +197,24 @@
   <si>
     <t>OK</t>
   </si>
+  <si>
+    <t xml:space="preserve"> Thực hiện cấu hình Migrate.</t>
+  </si>
+  <si>
+    <t>Cắm USB WIN 2022 vào Server PDC 2012</t>
+  </si>
+  <si>
+    <t>Cách chuyển vai trò FSMO bằng ntdsutil.exe</t>
+  </si>
+  <si>
+    <t>Chạy câu lệnh bên dưới.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,16 +284,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF9C0006"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF54585C"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -473,12 +518,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -534,23 +611,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -561,17 +629,50 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -601,7 +702,7 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -645,7 +746,7 @@
       <xdr:col>25</xdr:col>
       <xdr:colOff>257176</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1029,15 +1130,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
+      <xdr:colOff>371476</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1060,7 +1161,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="190501" y="13039725"/>
+          <a:off x="371476" y="13087350"/>
           <a:ext cx="6591299" cy="5438775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1725,15 +1826,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>143017</xdr:rowOff>
+      <xdr:rowOff>162067</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1756,7 +1857,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7429500" y="13077825"/>
+          <a:off x="7524750" y="13115925"/>
           <a:ext cx="5467350" cy="1019317"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2137,16 +2238,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>151</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>157</xdr:row>
-      <xdr:rowOff>38250</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>19200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2169,7 +2270,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11601450" y="34299525"/>
+          <a:off x="9810750" y="34470975"/>
           <a:ext cx="3676650" cy="1076475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2227,6 +2328,1078 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95252</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>561976</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB9D5F6C-8E41-41D5-9ECF-C7D8BAD22369}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3143252" y="771525"/>
+          <a:ext cx="4124324" cy="2543175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7199A83F-9339-4C8F-ACCB-A630551624E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4829175" y="3371851"/>
+          <a:ext cx="8286750" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29D6497E-DFAB-4F70-9848-D077267F9830}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="247651" y="4352925"/>
+          <a:ext cx="6305549" cy="6772275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>628651</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{301EB398-263A-412A-8C52-EF67A4C10722}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="628651" y="20193000"/>
+          <a:ext cx="7877174" cy="4200525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D9F19DC-941B-4B2E-B6E0-63722A6C2570}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657225" y="14249400"/>
+          <a:ext cx="3390900" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79306CEB-ED60-4A87-A028-BA3EA4CFBE22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="10" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4067175" y="14249400"/>
+          <a:ext cx="1209675" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27B1AF7D-246E-48F9-8879-9D64FA4E1B74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5276850" y="14077950"/>
+          <a:ext cx="1809750" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Lệnh</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> để thực hiện Update.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>305175</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>114523</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E6CA8A8-4BD0-4BE6-9B11-B96CA6285823}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11163300" y="20202525"/>
+          <a:ext cx="2686425" cy="1600423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>123937</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B3368FB-3364-40BD-ACE1-D9CE4718F4F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="11" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8324850" y="21002737"/>
+          <a:ext cx="2838450" cy="1295288"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>238816</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>19529</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C5757FA-40E2-4A59-BD27-08C4BEC4F12A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9915525" y="14325600"/>
+          <a:ext cx="4953691" cy="4286729"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>181163</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>114523</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>200371</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6178CA5-E6D0-49DC-9CBE-7D3D3E69EE04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="2"/>
+          <a:endCxn id="13" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12373163" y="13706698"/>
+          <a:ext cx="19208" cy="618902"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104917</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00D533ED-78BD-439B-A4C9-0F718CEFE096}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6877050" y="4581525"/>
+          <a:ext cx="5467350" cy="1257442"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>209603</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65C58729-FB3C-4A5B-B4CC-D08B64EAE74A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3124201" y="17611725"/>
+          <a:ext cx="4819650" cy="476303"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rectangle 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D614332-8278-42BC-93EA-07AB87BDFC0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6829425" y="26317575"/>
+          <a:ext cx="1104900" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>209707</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F5CB0BD-A276-499E-A747-C113D92E5A4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3705225" y="18621375"/>
+          <a:ext cx="6000750" cy="1333657"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A64F088-BF32-4434-9544-98A35568FA38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3724275" y="20421600"/>
+          <a:ext cx="4181475" cy="1276350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97B8D32D-50F3-4200-AE21-689F1D828D66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3609975" y="31251525"/>
+          <a:ext cx="3819525" cy="1209675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>76429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE7ED0F3-7A67-4504-8E85-300A11744B66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7686676" y="31232475"/>
+          <a:ext cx="3448050" cy="1228954"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>47783</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{739ACE9C-5BF7-422F-A1C6-F769BA5B1BFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3581400" y="32746950"/>
+          <a:ext cx="3800475" cy="1133633"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>95444</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FD7D0E5-6E13-44EE-A6D5-7DC48E66294C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8096250" y="32727900"/>
+          <a:ext cx="3619500" cy="1390844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>19200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58E7A947-2708-4BE9-9D00-47EED95D3754}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9810750" y="34490025"/>
+          <a:ext cx="3676650" cy="1076475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>86021</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBA310C9-41D5-427C-B3BE-411AFC3262D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3448051" y="34270950"/>
+          <a:ext cx="5791200" cy="2124371"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2336,7 +3509,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2462,55 +3635,6 @@
         <a:xfrm>
           <a:off x="12420600" y="409575"/>
           <a:ext cx="3667125" cy="4344006"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>247651</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>162771</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18108C84-EA84-4540-B80B-FBDFDC057345}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="857251" y="390525"/>
-          <a:ext cx="11391900" cy="6058746"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2787,7 +3911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
@@ -2798,7 +3922,7 @@
     <col min="21" max="21" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>13</v>
       </c>
@@ -2822,7 +3946,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>15</v>
       </c>
@@ -2878,18 +4002,18 @@
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
     </row>
-    <row r="7" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="25" t="s">
+    <row r="7" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="33"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -2907,21 +4031,21 @@
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
     </row>
-    <row r="8" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
@@ -3126,9 +4250,9 @@
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="36"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="27"/>
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
@@ -3153,9 +4277,9 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="36"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="27"/>
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
@@ -3180,9 +4304,9 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="36"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="27"/>
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
@@ -3207,9 +4331,9 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="36"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="27"/>
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
@@ -3703,19 +4827,19 @@
       <c r="Y37" s="4"/>
     </row>
     <row r="38" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="30"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="38"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
@@ -3733,18 +4857,18 @@
       <c r="A39" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="33"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="30"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
@@ -6621,7 +7745,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="A38:K38"/>
+    <mergeCell ref="B39:K39"/>
+    <mergeCell ref="B8:J8"/>
     <mergeCell ref="N20:P20"/>
     <mergeCell ref="N22:P23"/>
     <mergeCell ref="A1:O1"/>
@@ -6630,8 +7757,6 @@
     <mergeCell ref="S12:U12"/>
     <mergeCell ref="S14:U19"/>
     <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A38:K38"/>
-    <mergeCell ref="B39:K39"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B131" r:id="rId1" xr:uid="{3B35B103-BC5D-4E08-9F90-69CBA2C6FBF8}"/>
@@ -6645,6 +7770,2798 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55035B3-0B92-4D48-A9CE-37B0376DACD3}">
+  <dimension ref="A1:Z117"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A70" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="V88" sqref="V88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+    </row>
+    <row r="2" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="6"/>
+    </row>
+    <row r="3" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="6"/>
+    </row>
+    <row r="4" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="6"/>
+    </row>
+    <row r="5" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="6"/>
+    </row>
+    <row r="6" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="6"/>
+    </row>
+    <row r="7" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="6"/>
+    </row>
+    <row r="8" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="6"/>
+    </row>
+    <row r="9" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="6"/>
+    </row>
+    <row r="10" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="6"/>
+    </row>
+    <row r="11" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="6"/>
+    </row>
+    <row r="12" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="6"/>
+    </row>
+    <row r="13" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="6"/>
+    </row>
+    <row r="14" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="6"/>
+    </row>
+    <row r="15" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="6"/>
+    </row>
+    <row r="16" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="6"/>
+    </row>
+    <row r="17" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="6"/>
+    </row>
+    <row r="18" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="6"/>
+    </row>
+    <row r="19" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="6"/>
+    </row>
+    <row r="20" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="6"/>
+    </row>
+    <row r="21" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="6"/>
+    </row>
+    <row r="22" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="6"/>
+    </row>
+    <row r="23" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="6"/>
+    </row>
+    <row r="24" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="6"/>
+    </row>
+    <row r="25" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="6"/>
+    </row>
+    <row r="26" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="6"/>
+    </row>
+    <row r="27" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="6"/>
+    </row>
+    <row r="28" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="6"/>
+    </row>
+    <row r="29" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="6"/>
+    </row>
+    <row r="30" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="6"/>
+    </row>
+    <row r="31" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="6"/>
+    </row>
+    <row r="32" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="6"/>
+    </row>
+    <row r="33" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="6"/>
+    </row>
+    <row r="34" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="6"/>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="6"/>
+    </row>
+    <row r="35" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="6"/>
+    </row>
+    <row r="36" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="6"/>
+    </row>
+    <row r="37" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="6"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="6"/>
+    </row>
+    <row r="38" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="6"/>
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="6"/>
+    </row>
+    <row r="39" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="6"/>
+    </row>
+    <row r="40" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
+      <c r="V40" s="6"/>
+      <c r="W40" s="6"/>
+      <c r="X40" s="6"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="6"/>
+    </row>
+    <row r="41" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6"/>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="6"/>
+    </row>
+    <row r="42" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="4"/>
+      <c r="Z42" s="6"/>
+    </row>
+    <row r="43" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="6"/>
+      <c r="V43" s="6"/>
+      <c r="W43" s="6"/>
+      <c r="X43" s="6"/>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="6"/>
+    </row>
+    <row r="44" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
+      <c r="U44" s="6"/>
+      <c r="V44" s="6"/>
+      <c r="W44" s="6"/>
+      <c r="X44" s="6"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="6"/>
+    </row>
+    <row r="45" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="6"/>
+      <c r="U45" s="6"/>
+      <c r="V45" s="6"/>
+      <c r="W45" s="6"/>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="4"/>
+      <c r="Z45" s="6"/>
+    </row>
+    <row r="46" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6"/>
+      <c r="U46" s="6"/>
+      <c r="V46" s="6"/>
+      <c r="W46" s="6"/>
+      <c r="X46" s="6"/>
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="6"/>
+    </row>
+    <row r="47" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="42"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
+      <c r="U47" s="6"/>
+      <c r="V47" s="6"/>
+      <c r="W47" s="6"/>
+      <c r="X47" s="6"/>
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="6"/>
+    </row>
+    <row r="48" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="L48" s="44"/>
+      <c r="M48" s="44"/>
+      <c r="N48" s="44"/>
+      <c r="O48" s="44"/>
+      <c r="P48" s="44"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6"/>
+      <c r="Y48" s="4"/>
+      <c r="Z48" s="6"/>
+    </row>
+    <row r="49" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6"/>
+      <c r="U49" s="6"/>
+      <c r="V49" s="6"/>
+      <c r="W49" s="6"/>
+      <c r="X49" s="6"/>
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="6"/>
+    </row>
+    <row r="50" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="6"/>
+      <c r="U50" s="6"/>
+      <c r="V50" s="6"/>
+      <c r="W50" s="6"/>
+      <c r="X50" s="6"/>
+      <c r="Y50" s="4"/>
+      <c r="Z50" s="6"/>
+    </row>
+    <row r="51" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
+      <c r="U51" s="6"/>
+      <c r="V51" s="6"/>
+      <c r="W51" s="6"/>
+      <c r="X51" s="6"/>
+      <c r="Y51" s="4"/>
+      <c r="Z51" s="6"/>
+    </row>
+    <row r="52" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6"/>
+      <c r="U52" s="6"/>
+      <c r="V52" s="6"/>
+      <c r="W52" s="6"/>
+      <c r="X52" s="6"/>
+      <c r="Y52" s="4"/>
+      <c r="Z52" s="6"/>
+    </row>
+    <row r="53" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6"/>
+      <c r="U53" s="6"/>
+      <c r="V53" s="6"/>
+      <c r="W53" s="6"/>
+      <c r="X53" s="6"/>
+      <c r="Y53" s="4"/>
+      <c r="Z53" s="6"/>
+    </row>
+    <row r="54" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="6"/>
+      <c r="U54" s="6"/>
+      <c r="V54" s="6"/>
+      <c r="W54" s="6"/>
+      <c r="X54" s="6"/>
+      <c r="Y54" s="4"/>
+      <c r="Z54" s="6"/>
+    </row>
+    <row r="55" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6"/>
+      <c r="U55" s="6"/>
+      <c r="V55" s="6"/>
+      <c r="W55" s="6"/>
+      <c r="X55" s="6"/>
+      <c r="Y55" s="4"/>
+      <c r="Z55" s="6"/>
+    </row>
+    <row r="56" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="6"/>
+      <c r="U56" s="6"/>
+      <c r="V56" s="6"/>
+      <c r="W56" s="6"/>
+      <c r="X56" s="6"/>
+      <c r="Y56" s="4"/>
+      <c r="Z56" s="6"/>
+    </row>
+    <row r="57" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="T57" s="6"/>
+      <c r="U57" s="6"/>
+      <c r="V57" s="6"/>
+      <c r="W57" s="6"/>
+      <c r="X57" s="6"/>
+      <c r="Y57" s="4"/>
+      <c r="Z57" s="6"/>
+    </row>
+    <row r="58" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="6"/>
+      <c r="S58" s="6"/>
+      <c r="T58" s="6"/>
+      <c r="U58" s="6"/>
+      <c r="V58" s="6"/>
+      <c r="W58" s="6"/>
+      <c r="X58" s="6"/>
+      <c r="Y58" s="4"/>
+      <c r="Z58" s="6"/>
+    </row>
+    <row r="59" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6"/>
+      <c r="S59" s="6"/>
+      <c r="T59" s="6"/>
+      <c r="U59" s="6"/>
+      <c r="V59" s="6"/>
+      <c r="W59" s="6"/>
+      <c r="X59" s="6"/>
+      <c r="Y59" s="4"/>
+      <c r="Z59" s="6"/>
+    </row>
+    <row r="60" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
+      <c r="S60" s="6"/>
+      <c r="T60" s="6"/>
+      <c r="U60" s="6"/>
+      <c r="V60" s="6"/>
+      <c r="W60" s="6"/>
+      <c r="X60" s="6"/>
+      <c r="Y60" s="4"/>
+      <c r="Z60" s="6"/>
+    </row>
+    <row r="61" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="6"/>
+      <c r="R61" s="6"/>
+      <c r="S61" s="6"/>
+      <c r="T61" s="6"/>
+      <c r="U61" s="6"/>
+      <c r="V61" s="6"/>
+      <c r="W61" s="6"/>
+      <c r="X61" s="6"/>
+      <c r="Y61" s="4"/>
+      <c r="Z61" s="6"/>
+    </row>
+    <row r="62" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="6"/>
+      <c r="R62" s="6"/>
+      <c r="S62" s="6"/>
+      <c r="T62" s="6"/>
+      <c r="U62" s="6"/>
+      <c r="V62" s="6"/>
+      <c r="W62" s="6"/>
+      <c r="X62" s="6"/>
+      <c r="Y62" s="4"/>
+      <c r="Z62" s="6"/>
+    </row>
+    <row r="63" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="6"/>
+      <c r="S63" s="6"/>
+      <c r="T63" s="6"/>
+      <c r="U63" s="6"/>
+      <c r="V63" s="6"/>
+      <c r="W63" s="6"/>
+      <c r="X63" s="6"/>
+      <c r="Y63" s="4"/>
+      <c r="Z63" s="6"/>
+    </row>
+    <row r="64" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="6"/>
+      <c r="S64" s="6"/>
+      <c r="T64" s="6"/>
+      <c r="U64" s="6"/>
+      <c r="V64" s="6"/>
+      <c r="W64" s="6"/>
+      <c r="X64" s="6"/>
+      <c r="Y64" s="4"/>
+      <c r="Z64" s="6"/>
+    </row>
+    <row r="65" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
+      <c r="O65" s="4"/>
+      <c r="P65" s="4"/>
+      <c r="Q65" s="6"/>
+      <c r="R65" s="6"/>
+      <c r="S65" s="6"/>
+      <c r="T65" s="6"/>
+      <c r="U65" s="6"/>
+      <c r="V65" s="6"/>
+      <c r="W65" s="6"/>
+      <c r="X65" s="6"/>
+      <c r="Y65" s="4"/>
+      <c r="Z65" s="6"/>
+    </row>
+    <row r="66" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
+      <c r="O66" s="4"/>
+      <c r="P66" s="4"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="6"/>
+      <c r="S66" s="6"/>
+      <c r="T66" s="6"/>
+      <c r="U66" s="6"/>
+      <c r="V66" s="6"/>
+      <c r="W66" s="6"/>
+      <c r="X66" s="6"/>
+      <c r="Y66" s="4"/>
+      <c r="Z66" s="6"/>
+    </row>
+    <row r="67" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4"/>
+      <c r="O67" s="4"/>
+      <c r="P67" s="4"/>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="6"/>
+      <c r="S67" s="6"/>
+      <c r="T67" s="6"/>
+      <c r="U67" s="6"/>
+      <c r="V67" s="6"/>
+      <c r="W67" s="6"/>
+      <c r="X67" s="6"/>
+      <c r="Y67" s="4"/>
+      <c r="Z67" s="6"/>
+    </row>
+    <row r="68" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="4"/>
+      <c r="Q68" s="6"/>
+      <c r="R68" s="6"/>
+      <c r="S68" s="6"/>
+      <c r="T68" s="6"/>
+      <c r="U68" s="6"/>
+      <c r="V68" s="6"/>
+      <c r="W68" s="6"/>
+      <c r="X68" s="6"/>
+      <c r="Y68" s="4"/>
+      <c r="Z68" s="6"/>
+    </row>
+    <row r="69" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4"/>
+      <c r="O69" s="4"/>
+      <c r="P69" s="4"/>
+      <c r="Q69" s="6"/>
+      <c r="R69" s="6"/>
+      <c r="S69" s="6"/>
+      <c r="T69" s="6"/>
+      <c r="U69" s="6"/>
+      <c r="V69" s="6"/>
+      <c r="W69" s="6"/>
+      <c r="X69" s="6"/>
+      <c r="Y69" s="4"/>
+      <c r="Z69" s="6"/>
+    </row>
+    <row r="70" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="4"/>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="6"/>
+      <c r="S70" s="6"/>
+      <c r="T70" s="6"/>
+      <c r="U70" s="6"/>
+      <c r="V70" s="6"/>
+      <c r="W70" s="6"/>
+      <c r="X70" s="6"/>
+      <c r="Y70" s="4"/>
+      <c r="Z70" s="6"/>
+    </row>
+    <row r="71" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
+      <c r="O71" s="4"/>
+      <c r="P71" s="4"/>
+      <c r="Q71" s="6"/>
+      <c r="R71" s="6"/>
+      <c r="S71" s="6"/>
+      <c r="T71" s="6"/>
+      <c r="U71" s="6"/>
+      <c r="V71" s="6"/>
+      <c r="W71" s="6"/>
+      <c r="X71" s="6"/>
+      <c r="Y71" s="4"/>
+      <c r="Z71" s="6"/>
+    </row>
+    <row r="72" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4"/>
+      <c r="Q72" s="6"/>
+      <c r="R72" s="6"/>
+      <c r="S72" s="6"/>
+      <c r="T72" s="6"/>
+      <c r="U72" s="6"/>
+      <c r="V72" s="6"/>
+      <c r="W72" s="6"/>
+      <c r="X72" s="6"/>
+      <c r="Y72" s="4"/>
+      <c r="Z72" s="6"/>
+    </row>
+    <row r="73" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
+      <c r="O73" s="4"/>
+      <c r="P73" s="4"/>
+      <c r="Q73" s="6"/>
+      <c r="R73" s="6"/>
+      <c r="S73" s="6"/>
+      <c r="T73" s="6"/>
+      <c r="U73" s="6"/>
+      <c r="V73" s="6"/>
+      <c r="W73" s="6"/>
+      <c r="X73" s="6"/>
+      <c r="Y73" s="4"/>
+      <c r="Z73" s="6"/>
+    </row>
+    <row r="74" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4"/>
+      <c r="P74" s="4"/>
+      <c r="Q74" s="6"/>
+      <c r="R74" s="6"/>
+      <c r="S74" s="6"/>
+      <c r="T74" s="6"/>
+      <c r="U74" s="6"/>
+      <c r="V74" s="6"/>
+      <c r="W74" s="6"/>
+      <c r="X74" s="6"/>
+      <c r="Y74" s="4"/>
+      <c r="Z74" s="6"/>
+    </row>
+    <row r="75" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B75" s="4"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
+      <c r="O75" s="4"/>
+      <c r="P75" s="4"/>
+      <c r="Q75" s="6"/>
+      <c r="R75" s="6"/>
+      <c r="S75" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="T75" s="6"/>
+      <c r="U75" s="6"/>
+      <c r="V75" s="6"/>
+      <c r="W75" s="6"/>
+      <c r="X75" s="6"/>
+      <c r="Y75" s="4"/>
+      <c r="Z75" s="6"/>
+    </row>
+    <row r="76" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+      <c r="O76" s="4"/>
+      <c r="P76" s="4"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
+      <c r="S76" s="6"/>
+      <c r="T76" s="6"/>
+      <c r="U76" s="6"/>
+      <c r="V76" s="6"/>
+      <c r="W76" s="6"/>
+      <c r="X76" s="6"/>
+      <c r="Y76" s="4"/>
+      <c r="Z76" s="6"/>
+    </row>
+    <row r="77" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
+      <c r="P77" s="4"/>
+      <c r="Q77" s="6"/>
+      <c r="R77" s="6"/>
+      <c r="S77" s="6"/>
+      <c r="T77" s="6"/>
+      <c r="U77" s="6"/>
+      <c r="V77" s="6"/>
+      <c r="W77" s="6"/>
+      <c r="X77" s="6"/>
+      <c r="Y77" s="4"/>
+      <c r="Z77" s="6"/>
+    </row>
+    <row r="78" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
+      <c r="O78" s="4"/>
+      <c r="P78" s="4"/>
+      <c r="Q78" s="6"/>
+      <c r="R78" s="6"/>
+      <c r="S78" s="6"/>
+      <c r="T78" s="6"/>
+      <c r="U78" s="6"/>
+      <c r="V78" s="6"/>
+      <c r="W78" s="6"/>
+      <c r="X78" s="6"/>
+      <c r="Y78" s="4"/>
+      <c r="Z78" s="6"/>
+    </row>
+    <row r="79" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
+      <c r="P79" s="4"/>
+      <c r="Q79" s="6"/>
+      <c r="R79" s="6"/>
+      <c r="S79" s="6"/>
+      <c r="T79" s="6"/>
+      <c r="U79" s="6"/>
+      <c r="V79" s="6"/>
+      <c r="W79" s="6"/>
+      <c r="X79" s="6"/>
+      <c r="Y79" s="4"/>
+      <c r="Z79" s="6"/>
+    </row>
+    <row r="80" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A80" s="9"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="11"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
+      <c r="P80" s="4"/>
+      <c r="Q80" s="6"/>
+      <c r="R80" s="6"/>
+      <c r="S80" s="6"/>
+      <c r="T80" s="6"/>
+      <c r="U80" s="6"/>
+      <c r="V80" s="6"/>
+      <c r="W80" s="6"/>
+      <c r="X80" s="6"/>
+      <c r="Y80" s="4"/>
+      <c r="Z80" s="6"/>
+    </row>
+    <row r="81" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A81" s="9"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="11"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
+      <c r="P81" s="4"/>
+      <c r="Q81" s="6"/>
+      <c r="R81" s="6"/>
+      <c r="S81" s="6"/>
+      <c r="T81" s="6"/>
+      <c r="U81" s="6"/>
+      <c r="V81" s="6"/>
+      <c r="W81" s="6"/>
+      <c r="X81" s="6"/>
+      <c r="Y81" s="4"/>
+      <c r="Z81" s="6"/>
+    </row>
+    <row r="82" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="4"/>
+      <c r="Q82" s="7"/>
+      <c r="R82" s="7"/>
+      <c r="S82" s="7"/>
+      <c r="T82" s="7"/>
+      <c r="U82" s="7"/>
+      <c r="V82" s="7"/>
+      <c r="W82" s="7"/>
+      <c r="X82" s="7"/>
+      <c r="Y82" s="4"/>
+      <c r="Z82" s="6"/>
+    </row>
+    <row r="83" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="4"/>
+      <c r="O83" s="4"/>
+      <c r="P83" s="4"/>
+      <c r="Q83" s="7"/>
+      <c r="R83" s="7"/>
+      <c r="S83" s="7"/>
+      <c r="T83" s="7"/>
+      <c r="U83" s="7"/>
+      <c r="V83" s="7"/>
+      <c r="W83" s="7"/>
+      <c r="X83" s="7"/>
+      <c r="Y83" s="4"/>
+      <c r="Z83" s="6"/>
+    </row>
+    <row r="84" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4"/>
+      <c r="O84" s="4"/>
+      <c r="P84" s="4"/>
+      <c r="Q84" s="7"/>
+      <c r="R84" s="7"/>
+      <c r="S84" s="7"/>
+      <c r="T84" s="7"/>
+      <c r="U84" s="7"/>
+      <c r="V84" s="7"/>
+      <c r="W84" s="7"/>
+      <c r="X84" s="7"/>
+      <c r="Y84" s="4"/>
+      <c r="Z84" s="6"/>
+    </row>
+    <row r="85" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="4"/>
+      <c r="O85" s="4"/>
+      <c r="P85" s="4"/>
+      <c r="Q85" s="7"/>
+      <c r="R85" s="7"/>
+      <c r="S85" s="7"/>
+      <c r="T85" s="7"/>
+      <c r="U85" s="7"/>
+      <c r="V85" s="7"/>
+      <c r="W85" s="7"/>
+      <c r="X85" s="7"/>
+      <c r="Y85" s="4"/>
+      <c r="Z85" s="6"/>
+    </row>
+    <row r="86" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
+      <c r="Q86" s="7"/>
+      <c r="R86" s="7"/>
+      <c r="S86" s="7"/>
+      <c r="T86" s="7"/>
+      <c r="U86" s="7"/>
+      <c r="V86" s="7"/>
+      <c r="W86" s="7"/>
+      <c r="X86" s="7"/>
+      <c r="Y86" s="4"/>
+      <c r="Z86" s="6"/>
+    </row>
+    <row r="87" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
+      <c r="Q87" s="7"/>
+      <c r="R87" s="7"/>
+      <c r="S87" s="7"/>
+      <c r="T87" s="7"/>
+      <c r="U87" s="7"/>
+      <c r="V87" s="7"/>
+      <c r="W87" s="7"/>
+      <c r="X87" s="7"/>
+      <c r="Y87" s="4"/>
+      <c r="Z87" s="6"/>
+    </row>
+    <row r="88" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="4"/>
+      <c r="Q88" s="7"/>
+      <c r="R88" s="7"/>
+      <c r="S88" s="7"/>
+      <c r="T88" s="7"/>
+      <c r="U88" s="7"/>
+      <c r="V88" s="7"/>
+      <c r="W88" s="7"/>
+      <c r="X88" s="7"/>
+      <c r="Y88" s="4"/>
+      <c r="Z88" s="6"/>
+    </row>
+    <row r="89" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="4"/>
+      <c r="O89" s="4"/>
+      <c r="P89" s="4"/>
+      <c r="Q89" s="7"/>
+      <c r="R89" s="7"/>
+      <c r="S89" s="7"/>
+      <c r="T89" s="7"/>
+      <c r="U89" s="7"/>
+      <c r="V89" s="7"/>
+      <c r="W89" s="7"/>
+      <c r="X89" s="7"/>
+      <c r="Y89" s="4"/>
+      <c r="Z89" s="6"/>
+    </row>
+    <row r="90" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A90" s="1"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="4"/>
+      <c r="O90" s="4"/>
+      <c r="P90" s="4"/>
+      <c r="Q90" s="4"/>
+      <c r="R90" s="4"/>
+      <c r="S90" s="4"/>
+      <c r="T90" s="4"/>
+      <c r="U90" s="4"/>
+      <c r="V90" s="4"/>
+      <c r="W90" s="4"/>
+      <c r="X90" s="4"/>
+      <c r="Y90" s="4"/>
+      <c r="Z90" s="6"/>
+    </row>
+    <row r="91" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="4"/>
+      <c r="O91" s="4"/>
+      <c r="P91" s="4"/>
+      <c r="Q91" s="4"/>
+      <c r="R91" s="4"/>
+      <c r="S91" s="4"/>
+      <c r="T91" s="4"/>
+      <c r="U91" s="4"/>
+      <c r="V91" s="4"/>
+      <c r="W91" s="4"/>
+      <c r="X91" s="4"/>
+      <c r="Y91" s="4"/>
+      <c r="Z91" s="6"/>
+    </row>
+    <row r="92" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="4"/>
+      <c r="O92" s="4"/>
+      <c r="P92" s="4"/>
+      <c r="Q92" s="4"/>
+      <c r="R92" s="4"/>
+      <c r="S92" s="4"/>
+      <c r="T92" s="4"/>
+      <c r="U92" s="4"/>
+      <c r="V92" s="4"/>
+      <c r="W92" s="4"/>
+      <c r="X92" s="4"/>
+      <c r="Y92" s="4"/>
+      <c r="Z92" s="6"/>
+    </row>
+    <row r="93" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A93" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="4"/>
+      <c r="O93" s="4"/>
+      <c r="P93" s="4"/>
+      <c r="Q93" s="4"/>
+      <c r="R93" s="4"/>
+      <c r="S93" s="4"/>
+      <c r="T93" s="4"/>
+      <c r="U93" s="4"/>
+      <c r="V93" s="4"/>
+      <c r="W93" s="4"/>
+      <c r="X93" s="4"/>
+      <c r="Y93" s="4"/>
+      <c r="Z93" s="6"/>
+    </row>
+    <row r="94" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="4"/>
+      <c r="O94" s="4"/>
+      <c r="P94" s="4"/>
+      <c r="Q94" s="4"/>
+      <c r="R94" s="4"/>
+      <c r="S94" s="4"/>
+      <c r="T94" s="4"/>
+      <c r="U94" s="4"/>
+      <c r="V94" s="4"/>
+      <c r="W94" s="4"/>
+      <c r="X94" s="4"/>
+      <c r="Y94" s="4"/>
+    </row>
+    <row r="95" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" t="s">
+        <v>50</v>
+      </c>
+      <c r="N95" s="4"/>
+      <c r="O95" s="4"/>
+      <c r="P95" s="4"/>
+      <c r="Q95" s="4"/>
+      <c r="R95" s="4"/>
+      <c r="S95" s="4"/>
+      <c r="T95" s="4"/>
+      <c r="U95" s="4"/>
+      <c r="V95" s="4"/>
+      <c r="W95" s="4"/>
+      <c r="X95" s="4"/>
+      <c r="Y95" s="4"/>
+    </row>
+    <row r="96" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="N96" s="4"/>
+      <c r="O96" s="4"/>
+      <c r="P96" s="4"/>
+      <c r="Q96" s="4"/>
+      <c r="R96" s="4"/>
+      <c r="S96" s="4"/>
+      <c r="T96" s="4"/>
+      <c r="U96" s="4"/>
+      <c r="V96" s="4"/>
+      <c r="W96" s="4"/>
+      <c r="X96" s="4"/>
+      <c r="Y96" s="4"/>
+    </row>
+    <row r="97" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="N97" s="4"/>
+      <c r="O97" s="4"/>
+      <c r="P97" s="4"/>
+      <c r="Q97" s="4"/>
+      <c r="R97" s="4"/>
+      <c r="S97" s="4"/>
+      <c r="T97" s="4"/>
+      <c r="U97" s="4"/>
+      <c r="V97" s="4"/>
+      <c r="W97" s="4"/>
+      <c r="X97" s="4"/>
+      <c r="Y97" s="4"/>
+    </row>
+    <row r="98" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="N98" s="4"/>
+      <c r="O98" s="4"/>
+      <c r="P98" s="4"/>
+      <c r="Q98" s="4"/>
+      <c r="R98" s="4"/>
+      <c r="S98" s="4"/>
+      <c r="T98" s="4"/>
+      <c r="U98" s="4"/>
+      <c r="V98" s="4"/>
+      <c r="W98" s="4"/>
+      <c r="X98" s="4"/>
+      <c r="Y98" s="4"/>
+    </row>
+    <row r="99" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="4"/>
+      <c r="L99" s="4"/>
+      <c r="M99" s="4"/>
+      <c r="N99" s="4"/>
+      <c r="O99" s="4"/>
+      <c r="P99" s="4"/>
+      <c r="Q99" s="4"/>
+      <c r="R99" s="4"/>
+      <c r="S99" s="4"/>
+      <c r="T99" s="4"/>
+      <c r="U99" s="4"/>
+      <c r="V99" s="4"/>
+      <c r="W99" s="4"/>
+      <c r="X99" s="4"/>
+      <c r="Y99" s="4"/>
+    </row>
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E102" t="s">
+        <v>52</v>
+      </c>
+      <c r="M102" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E110" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E111" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="K48:P48"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{8A1357CA-CC38-43FC-9E71-3D71500F4B95}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="33" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F6B3A2-4FB9-49D1-B950-4A99FE40175A}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -6659,12 +10576,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7338A4-D640-45E1-962F-8A7151AC5F08}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6692,19 +10609,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8053DD9-A350-4B60-B998-7AE63975F092}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>